--- a/HJA_scripts/10_eo_data/environmental_covariate_descriptions.xlsx
+++ b/HJA_scripts/10_eo_data/environmental_covariate_descriptions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Luo_Mingjie_Oregon/HJA_analyses_Kelpie/HJA_scripts/10_eo_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\gitHRepos\HJA_analyses_Kelpie\HJA_scripts\10_eo_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAD83F8-0692-D242-B5F0-3F3C3E65FAFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="2280" windowWidth="27640" windowHeight="16940" xr2:uid="{226CDBBF-2CD0-1343-A60A-EBE539272514}"/>
+    <workbookView xWindow="1164" yWindow="2280" windowWidth="27636" windowHeight="16944"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="1417">
   <si>
     <t>SiteName</t>
   </si>
@@ -4087,12 +4086,213 @@
   </si>
   <si>
     <t>Years since last disturbance, such as logging. Gave all areas without documented disturbance a value of 200 years</t>
+  </si>
+  <si>
+    <t>B1_median</t>
+  </si>
+  <si>
+    <t>median of all B1 band data (from approx 3 dates)</t>
+  </si>
+  <si>
+    <t>B2_median</t>
+  </si>
+  <si>
+    <t>median of all B2 band data (from approx 3 dates)</t>
+  </si>
+  <si>
+    <t>B3_median</t>
+  </si>
+  <si>
+    <t>median of all B3 band data (from approx 3 dates)</t>
+  </si>
+  <si>
+    <t>B4_median</t>
+  </si>
+  <si>
+    <t>median of all B4 band data (from approx 3 dates)</t>
+  </si>
+  <si>
+    <t>B5_median</t>
+  </si>
+  <si>
+    <t>median of all B5 band data (from approx 3 dates)</t>
+  </si>
+  <si>
+    <t>B6_median</t>
+  </si>
+  <si>
+    <t>median of all B6 band data (from approx 3 dates)</t>
+  </si>
+  <si>
+    <t>B7_median</t>
+  </si>
+  <si>
+    <t>median of all B7 band data (from approx 3 dates)</t>
+  </si>
+  <si>
+    <t>B10_median</t>
+  </si>
+  <si>
+    <t>median of all B10 band data (from approx 3 dates)</t>
+  </si>
+  <si>
+    <t>B11_median</t>
+  </si>
+  <si>
+    <t>median of all B11 band data (from approx 3 dates)</t>
+  </si>
+  <si>
+    <t>be10</t>
+  </si>
+  <si>
+    <t>elevation converted to m, at 10 m resolution</t>
+  </si>
+  <si>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>Topographic Roughness Index (calculated from be10, using raster::terrain() )</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>slope in degrees (calculated from be10, using raster::terrain() )</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>aspect in degrees (calculated from be10, using raster::terrain() )</t>
+  </si>
+  <si>
+    <t>Nss</t>
+  </si>
+  <si>
+    <t>Northness cos(aspect) - avoids circularity of aspect</t>
+  </si>
+  <si>
+    <t>Ess</t>
+  </si>
+  <si>
+    <t>Eastness sin(aspect) - avoids circularity of aspect</t>
+  </si>
+  <si>
+    <t>twi</t>
+  </si>
+  <si>
+    <t>Topographic Wetness Index (calculated from be10,  dynatopmodel::upslope.area(be, atb = T) )</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canopy height from l_p95 </t>
+  </si>
+  <si>
+    <t>ht.r250</t>
+  </si>
+  <si>
+    <t>mean ht over 250 m radius from point</t>
+  </si>
+  <si>
+    <t>ht.r500</t>
+  </si>
+  <si>
+    <t>mean ht over 500 m radius from point</t>
+  </si>
+  <si>
+    <t>ht.r1k</t>
+  </si>
+  <si>
+    <t>mean ht over 1000 m radius from point</t>
+  </si>
+  <si>
+    <t>cov2_4</t>
+  </si>
+  <si>
+    <t>cover 2 - 4 m from l_Cover_2m_4m</t>
+  </si>
+  <si>
+    <t>cov2_4.r250</t>
+  </si>
+  <si>
+    <t>mean cov2_4 over 250 m radius from point</t>
+  </si>
+  <si>
+    <t>cov2_4.r500</t>
+  </si>
+  <si>
+    <t>mean cov2_4  over 500 m radius from point</t>
+  </si>
+  <si>
+    <t>cov2_4.r1k</t>
+  </si>
+  <si>
+    <t>mean cov2_4  over 1000 m radius from point</t>
+  </si>
+  <si>
+    <t>cov4_16</t>
+  </si>
+  <si>
+    <t>cover 4 - 16 m, from l_Cover_4m_16m</t>
+  </si>
+  <si>
+    <t>cov4_16.r250</t>
+  </si>
+  <si>
+    <t>mean cov4_16 over 250 m radius from point</t>
+  </si>
+  <si>
+    <t>cov4_16.r500</t>
+  </si>
+  <si>
+    <t>mean cov4_16  over 500 m radius from point</t>
+  </si>
+  <si>
+    <t>cov4_16.r1k</t>
+  </si>
+  <si>
+    <t>mean cov4_16  over 1000 m radius from point</t>
+  </si>
+  <si>
+    <t>be500</t>
+  </si>
+  <si>
+    <t>elevation over 500 m radius circle around pount, calculated from be10</t>
+  </si>
+  <si>
+    <t>mTopo</t>
+  </si>
+  <si>
+    <t>be10 - be500</t>
+  </si>
+  <si>
+    <t>cut.r1k.pt</t>
+  </si>
+  <si>
+    <t>proportion of area clear cut at any time (ie 1925?- 2016) within 1 km radius</t>
+  </si>
+  <si>
+    <t>new_CD</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>uniqueID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combination of site name_trap number (e.g. M1)_ session number (e.g. S1) </t>
+  </si>
+  <si>
+    <t>Same as SiteName?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4117,7 +4317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4142,6 +4342,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4155,12 +4361,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4474,23 +4682,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2414F742-5D76-6A42-96F2-D9E005CA4230}">
-  <dimension ref="A1:D1297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="112.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="112.796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1295</v>
       </c>
@@ -4503,8 +4711,11 @@
       <c r="D1" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4515,7 +4726,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4529,7 +4740,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4543,7 +4754,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4557,7 +4768,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -4571,7 +4782,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -4585,7 +4796,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -4596,7 +4807,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -4607,7 +4818,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -4618,7 +4829,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -4629,7 +4840,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -4640,7 +4851,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -4651,7 +4862,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -4662,7 +4873,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -4673,7 +4884,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -4684,7 +4895,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -4695,7 +4906,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -4706,7 +4917,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -4717,7 +4928,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -4728,7 +4939,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -4739,7 +4950,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -4750,7 +4961,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -4761,7 +4972,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -4772,7 +4983,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -4783,7 +4994,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -4794,7 +5005,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -4805,7 +5016,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -4816,7 +5027,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -4827,7 +5038,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -4838,7 +5049,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -4849,7 +5060,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -4860,7 +5071,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -4871,7 +5082,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -4882,7 +5093,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -4893,7 +5104,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -4904,7 +5115,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4915,7 +5126,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -4926,6311 +5137,6775 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="E40" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="E41" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="E42" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="E43" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="E44" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="E45" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="E46" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="E47" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="E48" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="E49" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="E50" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="E51" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="E52" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="E53" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="E54" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="E55" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="E56" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="E57" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="E58" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="E59" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="E60" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="E61" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="E62" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="E63" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="E64" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="E65" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="E66" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="E67" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="E68" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="E69" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="E70" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>1341</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B99" s="4" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="3" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="s">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="s">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="s">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="3" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="3" t="s">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="3" t="s">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="3" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="3" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="3" t="s">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="3" t="s">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="3" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="3" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="3" t="s">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" s="3" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="3" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="3" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="3" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="3" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" s="3" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="3" t="s">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" s="3" t="s">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" s="3" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" s="3" t="s">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="3" t="s">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" s="3" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" s="3" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" s="3" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" s="3" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" s="3" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="3" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" s="3" t="s">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" s="3" t="s">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" s="3" t="s">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" s="3" t="s">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" s="3" t="s">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" s="3" t="s">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" s="3" t="s">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" s="3" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" s="3" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" s="3" t="s">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" s="3" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" s="3" t="s">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" s="3" t="s">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" s="3" t="s">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" s="3" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" s="3" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" s="3" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" s="3" t="s">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" s="3" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" s="3" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" s="3" t="s">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" s="3" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" s="3" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" s="3" t="s">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="3" t="s">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="3" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="3" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="3" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" s="3" t="s">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" s="3" t="s">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="3" t="s">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" s="3" t="s">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="3" t="s">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="3" t="s">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="3" t="s">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="3" t="s">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="3" t="s">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="3" t="s">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="3" t="s">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="3" t="s">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="3" t="s">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="3" t="s">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="3" t="s">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="3" t="s">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="3" t="s">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="3" t="s">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" s="3" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" s="3" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" s="3" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" s="3" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" s="3" t="s">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" s="3" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" s="3" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" s="3" t="s">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" s="3" t="s">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="3" t="s">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="3" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="3" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" s="3" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" s="3" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" s="3" t="s">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" s="3" t="s">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" s="3" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" s="3" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" s="3" t="s">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="3" t="s">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" s="3" t="s">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" s="3" t="s">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" s="3" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="3" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="3" t="s">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="3" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" s="3" t="s">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" s="3" t="s">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" s="3" t="s">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="3" t="s">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" s="3" t="s">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" s="3" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" s="3" t="s">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="3" t="s">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="3" t="s">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" s="3" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" s="3" t="s">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" s="3" t="s">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" s="3" t="s">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="3" t="s">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" s="3" t="s">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="3" t="s">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" s="3" t="s">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" s="3" t="s">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="3" t="s">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" s="3" t="s">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" s="3" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="3" t="s">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" s="3" t="s">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" s="3" t="s">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" s="3" t="s">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" s="3" t="s">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="3" t="s">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" s="3" t="s">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" s="3" t="s">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="3" t="s">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" s="3" t="s">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="3" t="s">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" s="3" t="s">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" s="3" t="s">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" s="3" t="s">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="3" t="s">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" s="3" t="s">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" s="3" t="s">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="3" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" s="3" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="3" t="s">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" s="3" t="s">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" s="3" t="s">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" s="3" t="s">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="3" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" s="3" t="s">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" s="3" t="s">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" s="3" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="3" t="s">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="3" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="3" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" s="3" t="s">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="3" t="s">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" s="3" t="s">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" s="3" t="s">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" s="3" t="s">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" s="3" t="s">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" s="3" t="s">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="3" t="s">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" s="3" t="s">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="3" t="s">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="3" t="s">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" s="3" t="s">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="3" t="s">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="3" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="3" t="s">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="3" t="s">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="3" t="s">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="3" t="s">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="3" t="s">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="3" t="s">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="3" t="s">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="3" t="s">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="3" t="s">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="3" t="s">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="3" t="s">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="3" t="s">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="3" t="s">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="3" t="s">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="3" t="s">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="3" t="s">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="3" t="s">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="3" t="s">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="3" t="s">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="3" t="s">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="3" t="s">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="3" t="s">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="3" t="s">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="3" t="s">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="3" t="s">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="3" t="s">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="3" t="s">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="3" t="s">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="3" t="s">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="3" t="s">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="3" t="s">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="3" t="s">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="3" t="s">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="3" t="s">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="3" t="s">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="3" t="s">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="3" t="s">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="3" t="s">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="3" t="s">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="3" t="s">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="3" t="s">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="3" t="s">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="3" t="s">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="3" t="s">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" s="3" t="s">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" s="3" t="s">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" s="3" t="s">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" s="3" t="s">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" s="3" t="s">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" s="3" t="s">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" s="3" t="s">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" s="3" t="s">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" s="3" t="s">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" s="3" t="s">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" s="3" t="s">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" s="3" t="s">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" s="3" t="s">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" s="3" t="s">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="3" t="s">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" s="3" t="s">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" s="3" t="s">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" s="3" t="s">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A538" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" s="3" t="s">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A539" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" s="3" t="s">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A540" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" s="3" t="s">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A541" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" s="3" t="s">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A542" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" s="3" t="s">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" s="3" t="s">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" s="3" t="s">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" s="3" t="s">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" s="3" t="s">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" s="3" t="s">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" s="3" t="s">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" s="3" t="s">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" s="3" t="s">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" s="3" t="s">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" s="3" t="s">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" s="3" t="s">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A554" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="3" t="s">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" s="3" t="s">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A556" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" s="3" t="s">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A557" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" s="3" t="s">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A558" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" s="3" t="s">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A559" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" s="3" t="s">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A560" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" s="3" t="s">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A561" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" s="3" t="s">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A562" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A505" s="3" t="s">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A563" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A506" s="3" t="s">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A564" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" s="3" t="s">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A565" s="3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" s="3" t="s">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A566" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A509" s="3" t="s">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A567" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510" s="3" t="s">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A568" s="3" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511" s="3" t="s">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A569" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A512" s="3" t="s">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A570" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" s="3" t="s">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A571" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A514" s="3" t="s">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A572" s="3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" s="3" t="s">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A573" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516" s="3" t="s">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A574" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" s="3" t="s">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A575" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A518" s="3" t="s">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A576" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A519" s="3" t="s">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A577" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A520" s="3" t="s">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A578" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A521" s="3" t="s">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A579" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522" s="3" t="s">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A580" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A523" s="3" t="s">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A581" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A524" s="3" t="s">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A582" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A525" s="3" t="s">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A583" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A526" s="3" t="s">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A584" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A527" s="3" t="s">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A585" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A528" s="3" t="s">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A586" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A529" s="3" t="s">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A587" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A530" s="3" t="s">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A588" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A531" s="3" t="s">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A589" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A532" s="3" t="s">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A590" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A533" s="3" t="s">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A591" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A534" s="3" t="s">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A592" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A535" s="3" t="s">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A593" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A536" s="3" t="s">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A594" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A537" s="3" t="s">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A595" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A538" s="3" t="s">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A596" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A539" s="3" t="s">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A597" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A540" s="3" t="s">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A598" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A541" s="3" t="s">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A599" s="3" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A542" s="3" t="s">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A600" s="3" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A543" s="3" t="s">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A601" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A544" s="3" t="s">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A602" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A545" s="3" t="s">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A603" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A546" s="3" t="s">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A604" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A547" s="3" t="s">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A605" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A548" s="3" t="s">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A606" s="3" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A549" s="3" t="s">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A607" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A550" s="3" t="s">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A608" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A551" s="3" t="s">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A609" s="3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A552" s="3" t="s">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A610" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A553" s="3" t="s">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A611" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A554" s="3" t="s">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A612" s="3" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A555" s="3" t="s">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A613" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A556" s="3" t="s">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A614" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A557" s="3" t="s">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A615" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A558" s="3" t="s">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A616" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A559" s="3" t="s">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A617" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A560" s="3" t="s">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A618" s="3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A561" s="3" t="s">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A619" s="3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A562" s="3" t="s">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A620" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A563" s="3" t="s">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A621" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A564" s="3" t="s">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A622" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A565" s="3" t="s">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A623" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A566" s="3" t="s">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A624" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A567" s="3" t="s">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A625" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A568" s="3" t="s">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A626" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A569" s="3" t="s">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A627" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A570" s="3" t="s">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A628" s="3" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A571" s="3" t="s">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A629" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A572" s="3" t="s">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A630" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A573" s="3" t="s">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A631" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A574" s="3" t="s">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A632" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A575" s="3" t="s">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A633" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A576" s="3" t="s">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A634" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A577" s="3" t="s">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A635" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A578" s="3" t="s">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A636" s="3" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A579" s="3" t="s">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A637" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A580" s="3" t="s">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A638" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A581" s="3" t="s">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A639" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A582" s="3" t="s">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A640" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A583" s="3" t="s">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A641" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A584" s="3" t="s">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A642" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A585" s="3" t="s">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A643" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A586" s="3" t="s">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A644" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A587" s="3" t="s">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A645" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A588" s="3" t="s">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A646" s="3" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A589" s="3" t="s">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A647" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A590" s="3" t="s">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A648" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A591" s="3" t="s">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A649" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A592" s="3" t="s">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A650" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A593" s="3" t="s">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A651" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A594" s="3" t="s">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A652" s="3" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A595" s="3" t="s">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A653" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A596" s="3" t="s">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A654" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A597" s="3" t="s">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A655" s="3" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A598" s="3" t="s">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A656" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A599" s="3" t="s">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A657" s="3" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A600" s="3" t="s">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A658" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A601" s="3" t="s">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A659" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A602" s="3" t="s">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A660" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A603" s="3" t="s">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A661" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A604" s="3" t="s">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A662" s="3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A605" s="3" t="s">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A663" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A606" s="3" t="s">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A664" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A607" s="3" t="s">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A665" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A608" s="3" t="s">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A666" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A609" s="3" t="s">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A667" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A610" s="3" t="s">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A668" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A611" s="3" t="s">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A669" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A612" s="3" t="s">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A670" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A613" s="3" t="s">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A671" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A614" s="3" t="s">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A672" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A615" s="3" t="s">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A673" s="3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A616" s="3" t="s">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A674" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A617" s="3" t="s">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A675" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A618" s="3" t="s">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A676" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A619" s="3" t="s">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A677" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A620" s="3" t="s">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A678" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A621" s="3" t="s">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A679" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A622" s="3" t="s">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A680" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A623" s="3" t="s">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A681" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A624" s="3" t="s">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A682" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A625" s="3" t="s">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A683" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A626" s="3" t="s">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A684" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A627" s="3" t="s">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A685" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A628" s="3" t="s">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A686" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A629" s="3" t="s">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A687" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A630" s="3" t="s">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A688" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A631" s="3" t="s">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A689" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A632" s="3" t="s">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A690" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A633" s="3" t="s">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A691" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A634" s="3" t="s">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A692" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A635" s="3" t="s">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A693" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A636" s="3" t="s">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A694" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A637" s="3" t="s">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A695" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A638" s="3" t="s">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A696" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A639" s="3" t="s">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A697" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A640" s="3" t="s">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A698" s="3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A641" s="3" t="s">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A699" s="3" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A642" s="3" t="s">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A700" s="3" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A643" s="3" t="s">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A701" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A644" s="3" t="s">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A702" s="3" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A645" s="3" t="s">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A703" s="3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A646" s="3" t="s">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A704" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A647" s="3" t="s">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A705" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A648" s="3" t="s">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A706" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A649" s="3" t="s">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A707" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A650" s="3" t="s">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A708" s="3" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A651" s="3" t="s">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A709" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A652" s="3" t="s">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A710" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A653" s="3" t="s">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A711" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A654" s="3" t="s">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A712" s="3" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A655" s="3" t="s">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A713" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A656" s="3" t="s">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A714" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A657" s="3" t="s">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A715" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A658" s="3" t="s">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A716" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A659" s="3" t="s">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A717" s="3" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A660" s="3" t="s">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A718" s="3" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A661" s="3" t="s">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A719" s="3" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A662" s="3" t="s">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A720" s="3" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A663" s="3" t="s">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A721" s="3" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A664" s="3" t="s">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A722" s="3" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A665" s="3" t="s">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A723" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A666" s="3" t="s">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A724" s="3" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A667" s="3" t="s">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A725" s="3" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A668" s="3" t="s">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A726" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A669" s="3" t="s">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A727" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A670" s="3" t="s">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A728" s="3" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A671" s="3" t="s">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A729" s="3" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A672" s="3" t="s">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A730" s="3" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A673" s="3" t="s">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A731" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A674" s="3" t="s">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A732" s="3" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A675" s="3" t="s">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A733" s="3" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A676" s="3" t="s">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A734" s="3" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A677" s="3" t="s">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A735" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A678" s="3" t="s">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A736" s="3" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A679" s="3" t="s">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A737" s="3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A680" s="3" t="s">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A738" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A681" s="3" t="s">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A739" s="3" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A682" s="3" t="s">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A740" s="3" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A683" s="3" t="s">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A741" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A684" s="3" t="s">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A742" s="3" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A685" s="3" t="s">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A743" s="3" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A686" s="3" t="s">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A744" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A687" s="3" t="s">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A745" s="3" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A688" s="3" t="s">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A746" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A689" s="3" t="s">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A747" s="3" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A690" s="3" t="s">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A748" s="3" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A691" s="3" t="s">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A749" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A692" s="3" t="s">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A750" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A693" s="3" t="s">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A751" s="3" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A694" s="3" t="s">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A752" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A695" s="3" t="s">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A753" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A696" s="3" t="s">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A754" s="3" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A697" s="3" t="s">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A755" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A698" s="3" t="s">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A756" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A699" s="3" t="s">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A757" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A700" s="3" t="s">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A758" s="3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A701" s="3" t="s">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A759" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A702" s="3" t="s">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A760" s="3" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A703" s="3" t="s">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A761" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A704" s="3" t="s">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A762" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A705" s="3" t="s">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A763" s="3" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A706" s="3" t="s">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A764" s="3" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A707" s="3" t="s">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A765" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A708" s="3" t="s">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A766" s="3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A709" s="3" t="s">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A767" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A710" s="3" t="s">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A768" s="3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A711" s="3" t="s">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A769" s="3" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A712" s="3" t="s">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A770" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A713" s="3" t="s">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A771" s="3" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A714" s="3" t="s">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A772" s="3" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A715" s="3" t="s">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A773" s="3" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A716" s="3" t="s">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A774" s="3" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A717" s="3" t="s">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A775" s="3" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A718" s="3" t="s">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A776" s="3" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A719" s="3" t="s">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A777" s="3" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A720" s="3" t="s">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A778" s="3" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A721" s="3" t="s">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A779" s="3" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A722" s="3" t="s">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A780" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A723" s="3" t="s">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A781" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A724" s="3" t="s">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A782" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A725" s="3" t="s">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A783" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A726" s="3" t="s">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A784" s="3" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A727" s="3" t="s">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A785" s="3" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A728" s="3" t="s">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A786" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A729" s="3" t="s">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A787" s="3" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A730" s="3" t="s">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A788" s="3" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A731" s="3" t="s">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A789" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A732" s="3" t="s">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A790" s="3" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A733" s="3" t="s">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A791" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A734" s="3" t="s">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A792" s="3" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A735" s="3" t="s">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A793" s="3" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A736" s="3" t="s">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A794" s="3" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A737" s="3" t="s">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A795" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A738" s="3" t="s">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A796" s="3" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A739" s="3" t="s">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A797" s="3" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A740" s="3" t="s">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A798" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A741" s="3" t="s">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A799" s="3" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A742" s="3" t="s">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A800" s="3" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A743" s="3" t="s">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A801" s="3" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A744" s="3" t="s">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A802" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A745" s="3" t="s">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A803" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A746" s="3" t="s">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A804" s="3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A747" s="3" t="s">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A805" s="3" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A748" s="3" t="s">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A806" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A749" s="3" t="s">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A807" s="3" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A750" s="3" t="s">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A808" s="3" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A751" s="3" t="s">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A809" s="3" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A752" s="3" t="s">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A810" s="3" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A753" s="3" t="s">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A811" s="3" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A754" s="3" t="s">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A812" s="3" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A755" s="3" t="s">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A813" s="3" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A756" s="3" t="s">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A814" s="3" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A757" s="3" t="s">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A815" s="3" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A758" s="3" t="s">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A816" s="3" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A759" s="3" t="s">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A817" s="3" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A760" s="3" t="s">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A818" s="3" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A761" s="3" t="s">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A819" s="3" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A762" s="3" t="s">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A820" s="3" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A763" s="3" t="s">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A821" s="3" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A764" s="3" t="s">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A822" s="3" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A765" s="3" t="s">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A823" s="3" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A766" s="3" t="s">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A824" s="3" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A767" s="3" t="s">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A825" s="3" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A768" s="3" t="s">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A826" s="3" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A769" s="3" t="s">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A827" s="3" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A770" s="3" t="s">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A828" s="3" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A771" s="3" t="s">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A829" s="3" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A772" s="3" t="s">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A830" s="3" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A773" s="3" t="s">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A831" s="3" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A774" s="3" t="s">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A832" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A775" s="3" t="s">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A833" s="3" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A776" s="3" t="s">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A834" s="3" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A777" s="3" t="s">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A835" s="3" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A778" s="3" t="s">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A836" s="3" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A779" s="3" t="s">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A837" s="3" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A780" s="3" t="s">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A838" s="3" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A781" s="3" t="s">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A839" s="3" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A782" s="3" t="s">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A840" s="3" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A783" s="3" t="s">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A841" s="3" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A784" s="3" t="s">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A842" s="3" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A785" s="3" t="s">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A843" s="3" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A786" s="3" t="s">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A844" s="3" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A787" s="3" t="s">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A845" s="3" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A788" s="3" t="s">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A846" s="3" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A789" s="3" t="s">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A847" s="3" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A790" s="3" t="s">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A848" s="3" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A791" s="3" t="s">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A849" s="3" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A792" s="3" t="s">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A850" s="3" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A793" s="3" t="s">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A851" s="3" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A794" s="3" t="s">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A852" s="3" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A795" s="3" t="s">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A853" s="3" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A796" s="3" t="s">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A854" s="3" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A797" s="3" t="s">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A855" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A798" s="3" t="s">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A856" s="3" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A799" s="3" t="s">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A857" s="3" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A800" s="3" t="s">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A858" s="3" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A801" s="3" t="s">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A859" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A802" s="3" t="s">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A860" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A803" s="3" t="s">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A861" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A804" s="3" t="s">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A862" s="3" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A805" s="3" t="s">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A863" s="3" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A806" s="3" t="s">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A864" s="3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A807" s="3" t="s">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A865" s="3" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A808" s="3" t="s">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A866" s="3" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A809" s="3" t="s">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A867" s="3" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A810" s="3" t="s">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A868" s="3" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A811" s="3" t="s">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A869" s="3" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A812" s="3" t="s">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A870" s="3" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A813" s="3" t="s">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A871" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A814" s="3" t="s">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A872" s="3" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A815" s="3" t="s">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A873" s="3" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A816" s="3" t="s">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A874" s="3" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A817" s="3" t="s">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A875" s="3" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A818" s="3" t="s">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A876" s="3" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A819" s="3" t="s">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A877" s="3" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A820" s="3" t="s">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A878" s="3" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A821" s="3" t="s">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A879" s="3" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A822" s="3" t="s">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A880" s="3" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A823" s="3" t="s">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A881" s="3" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A824" s="3" t="s">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A882" s="3" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A825" s="3" t="s">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A883" s="3" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A826" s="3" t="s">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A884" s="3" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A827" s="3" t="s">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A885" s="3" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A828" s="3" t="s">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A886" s="3" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A829" s="3" t="s">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A887" s="3" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A830" s="3" t="s">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A888" s="3" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A831" s="3" t="s">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A889" s="3" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A832" s="3" t="s">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A890" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A833" s="3" t="s">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A891" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A834" s="3" t="s">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A892" s="3" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A835" s="3" t="s">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A893" s="3" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A836" s="3" t="s">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A894" s="3" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A837" s="3" t="s">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A895" s="3" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A838" s="3" t="s">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A896" s="3" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A839" s="3" t="s">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A897" s="3" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A840" s="3" t="s">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A898" s="3" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A841" s="3" t="s">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A899" s="3" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A842" s="3" t="s">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A900" s="3" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A843" s="3" t="s">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A901" s="3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A844" s="3" t="s">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A902" s="3" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A845" s="3" t="s">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A903" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A846" s="3" t="s">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A904" s="3" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A847" s="3" t="s">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A905" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A848" s="3" t="s">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A906" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A849" s="3" t="s">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A907" s="3" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A850" s="3" t="s">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A908" s="3" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A851" s="3" t="s">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A909" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A852" s="3" t="s">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A910" s="3" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A853" s="3" t="s">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A911" s="3" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A854" s="3" t="s">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A912" s="3" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A855" s="3" t="s">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A913" s="3" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A856" s="3" t="s">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A914" s="3" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A857" s="3" t="s">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A915" s="3" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A858" s="3" t="s">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A916" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A859" s="3" t="s">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A917" s="3" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A860" s="3" t="s">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A918" s="3" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A861" s="3" t="s">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A919" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A862" s="3" t="s">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A920" s="3" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A863" s="3" t="s">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A921" s="3" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A864" s="3" t="s">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A922" s="3" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A865" s="3" t="s">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A923" s="3" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A866" s="3" t="s">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A924" s="3" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A867" s="3" t="s">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A925" s="3" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A868" s="3" t="s">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A926" s="3" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A869" s="3" t="s">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A927" s="3" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A870" s="3" t="s">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A928" s="3" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A871" s="3" t="s">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A929" s="3" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A872" s="3" t="s">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A930" s="3" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A873" s="3" t="s">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A931" s="3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A874" s="3" t="s">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A932" s="3" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A875" s="3" t="s">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A933" s="3" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A876" s="3" t="s">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A934" s="3" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A877" s="3" t="s">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A935" s="3" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A878" s="3" t="s">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A936" s="3" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A879" s="3" t="s">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A937" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A880" s="3" t="s">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A938" s="3" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A881" s="3" t="s">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A939" s="3" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A882" s="3" t="s">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A940" s="3" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A883" s="3" t="s">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A941" s="3" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A884" s="3" t="s">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A942" s="3" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A885" s="3" t="s">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A943" s="3" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A886" s="3" t="s">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A944" s="3" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A887" s="3" t="s">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A945" s="3" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A888" s="3" t="s">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A946" s="3" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A889" s="3" t="s">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A947" s="3" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A890" s="3" t="s">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A948" s="3" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A891" s="3" t="s">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A949" s="3" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A892" s="3" t="s">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A950" s="3" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A893" s="3" t="s">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A951" s="3" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A894" s="3" t="s">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A952" s="3" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A895" s="3" t="s">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A953" s="3" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A896" s="3" t="s">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A954" s="3" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A897" s="3" t="s">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A955" s="3" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A898" s="3" t="s">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A956" s="3" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A899" s="3" t="s">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A957" s="3" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A900" s="3" t="s">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A958" s="3" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A901" s="3" t="s">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A959" s="3" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A902" s="3" t="s">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A960" s="3" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A903" s="3" t="s">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A961" s="3" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A904" s="3" t="s">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A962" s="3" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A905" s="3" t="s">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A963" s="3" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A906" s="3" t="s">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A964" s="3" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A907" s="3" t="s">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A965" s="3" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A908" s="3" t="s">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A966" s="3" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A909" s="3" t="s">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A967" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A910" s="3" t="s">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A968" s="3" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A911" s="3" t="s">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A969" s="3" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A912" s="3" t="s">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A970" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A913" s="3" t="s">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A971" s="3" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A914" s="3" t="s">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A972" s="3" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A915" s="3" t="s">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A973" s="3" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A916" s="3" t="s">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A974" s="3" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A917" s="3" t="s">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A975" s="3" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A918" s="3" t="s">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A976" s="3" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A919" s="3" t="s">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A977" s="3" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A920" s="3" t="s">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A978" s="3" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A921" s="3" t="s">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A979" s="3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A922" s="3" t="s">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A980" s="3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A923" s="3" t="s">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A981" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A924" s="3" t="s">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A982" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A925" s="3" t="s">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A983" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A926" s="3" t="s">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A984" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A927" s="3" t="s">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A985" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A928" s="3" t="s">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A986" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A929" s="3" t="s">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A987" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A930" s="3" t="s">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A988" s="3" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A931" s="3" t="s">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A989" s="3" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A932" s="3" t="s">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A990" s="3" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A933" s="3" t="s">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A991" s="3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A934" s="3" t="s">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A992" s="3" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A935" s="3" t="s">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A993" s="3" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A936" s="3" t="s">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A994" s="3" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A937" s="3" t="s">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A995" s="3" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A938" s="3" t="s">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A996" s="3" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A939" s="3" t="s">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A997" s="3" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A940" s="3" t="s">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A998" s="3" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A941" s="3" t="s">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A999" s="3" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A942" s="3" t="s">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1000" s="3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A943" s="3" t="s">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1001" s="3" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A944" s="3" t="s">
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1002" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A945" s="3" t="s">
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1003" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A946" s="3" t="s">
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1004" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A947" s="3" t="s">
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1005" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A948" s="3" t="s">
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1006" s="3" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A949" s="3" t="s">
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1007" s="3" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A950" s="3" t="s">
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1008" s="3" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A951" s="3" t="s">
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1009" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A952" s="3" t="s">
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1010" s="3" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A953" s="3" t="s">
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1011" s="3" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A954" s="3" t="s">
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1012" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A955" s="3" t="s">
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1013" s="3" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A956" s="3" t="s">
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1014" s="3" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A957" s="3" t="s">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1015" s="3" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A958" s="3" t="s">
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1016" s="3" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A959" s="3" t="s">
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1017" s="3" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A960" s="3" t="s">
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1018" s="3" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A961" s="3" t="s">
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1019" s="3" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A962" s="3" t="s">
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1020" s="3" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A963" s="3" t="s">
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1021" s="3" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A964" s="3" t="s">
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1022" s="3" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A965" s="3" t="s">
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1023" s="3" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A966" s="3" t="s">
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1024" s="3" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A967" s="3" t="s">
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1025" s="3" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A968" s="3" t="s">
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1026" s="3" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A969" s="3" t="s">
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1027" s="3" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A970" s="3" t="s">
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1028" s="3" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A971" s="3" t="s">
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1029" s="3" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A972" s="3" t="s">
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1030" s="3" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A973" s="3" t="s">
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1031" s="3" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A974" s="3" t="s">
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1032" s="3" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A975" s="3" t="s">
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1033" s="3" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A976" s="3" t="s">
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1034" s="3" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A977" s="3" t="s">
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1035" s="3" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A978" s="3" t="s">
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1036" s="3" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A979" s="3" t="s">
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1037" s="3" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A980" s="3" t="s">
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1038" s="3" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A981" s="3" t="s">
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1039" s="3" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A982" s="3" t="s">
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1040" s="3" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A983" s="3" t="s">
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1041" s="3" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A984" s="3" t="s">
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1042" s="3" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A985" s="3" t="s">
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1043" s="3" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A986" s="3" t="s">
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1044" s="3" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A987" s="3" t="s">
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1045" s="3" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A988" s="3" t="s">
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1046" s="3" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A989" s="3" t="s">
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1047" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A990" s="3" t="s">
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048" s="3" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A991" s="3" t="s">
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1049" s="3" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A992" s="3" t="s">
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1050" s="3" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A993" s="3" t="s">
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1051" s="3" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A994" s="3" t="s">
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1052" s="3" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A995" s="3" t="s">
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1053" s="3" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A996" s="3" t="s">
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1054" s="3" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A997" s="3" t="s">
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1055" s="3" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A998" s="3" t="s">
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1056" s="3" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A999" s="3" t="s">
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1057" s="3" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="3" t="s">
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1058" s="3" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="3" t="s">
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1059" s="3" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1002" s="3" t="s">
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1060" s="3" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1003" s="3" t="s">
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1061" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1004" s="3" t="s">
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1062" s="3" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1005" s="3" t="s">
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1063" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1006" s="3" t="s">
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1064" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1007" s="3" t="s">
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1065" s="3" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1008" s="3" t="s">
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1066" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1009" s="3" t="s">
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1067" s="3" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1010" s="3" t="s">
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1068" s="3" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1011" s="3" t="s">
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1069" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1012" s="3" t="s">
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1070" s="3" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1013" s="3" t="s">
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1071" s="3" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1014" s="3" t="s">
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1072" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1015" s="3" t="s">
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1073" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1016" s="3" t="s">
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1074" s="3" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1017" s="3" t="s">
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1075" s="3" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1018" s="3" t="s">
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1076" s="3" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1019" s="3" t="s">
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1077" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1020" s="3" t="s">
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1078" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1021" s="3" t="s">
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1079" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1022" s="3" t="s">
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1080" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1023" s="3" t="s">
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1081" s="3" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1024" s="3" t="s">
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1082" s="3" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1025" s="3" t="s">
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1083" s="3" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1026" s="3" t="s">
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1084" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1027" s="3" t="s">
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1085" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1028" s="3" t="s">
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1086" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1029" s="3" t="s">
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1087" s="3" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1030" s="3" t="s">
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1088" s="3" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1031" s="3" t="s">
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1089" s="3" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1032" s="3" t="s">
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1090" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1033" s="3" t="s">
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1091" s="3" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1034" s="3" t="s">
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1092" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1035" s="3" t="s">
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1093" s="3" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1036" s="3" t="s">
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1094" s="3" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1037" s="3" t="s">
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1095" s="3" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1038" s="3" t="s">
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1096" s="3" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1039" s="3" t="s">
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1097" s="3" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1040" s="3" t="s">
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1098" s="3" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1041" s="3" t="s">
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1099" s="3" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1042" s="3" t="s">
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1100" s="3" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1043" s="3" t="s">
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1101" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1044" s="3" t="s">
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1102" s="3" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1045" s="3" t="s">
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1103" s="3" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1046" s="3" t="s">
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1104" s="3" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1047" s="3" t="s">
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1105" s="3" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1048" s="3" t="s">
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1106" s="3" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1049" s="3" t="s">
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1107" s="3" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1050" s="3" t="s">
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1108" s="3" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1051" s="3" t="s">
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1109" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1052" s="3" t="s">
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1110" s="3" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1053" s="3" t="s">
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1111" s="3" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1054" s="3" t="s">
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1112" s="3" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1055" s="3" t="s">
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1113" s="3" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1056" s="3" t="s">
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1114" s="3" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1057" s="3" t="s">
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1115" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1058" s="3" t="s">
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1116" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1059" s="3" t="s">
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1117" s="3" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1060" s="3" t="s">
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1118" s="3" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1061" s="3" t="s">
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1119" s="3" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1062" s="3" t="s">
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1120" s="3" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1063" s="3" t="s">
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1121" s="3" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1064" s="3" t="s">
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1122" s="3" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1065" s="3" t="s">
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1123" s="3" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1066" s="3" t="s">
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1124" s="3" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1067" s="3" t="s">
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1125" s="3" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1068" s="3" t="s">
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1126" s="3" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1069" s="3" t="s">
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1127" s="3" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1070" s="3" t="s">
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1128" s="3" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1071" s="3" t="s">
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1129" s="3" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1072" s="3" t="s">
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1130" s="3" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1073" s="3" t="s">
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1131" s="3" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1074" s="3" t="s">
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1132" s="3" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1075" s="3" t="s">
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1133" s="3" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1076" s="3" t="s">
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1134" s="3" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1077" s="3" t="s">
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1135" s="3" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1078" s="3" t="s">
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1136" s="3" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1079" s="3" t="s">
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1137" s="3" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1080" s="3" t="s">
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1138" s="3" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1081" s="3" t="s">
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1139" s="3" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1082" s="3" t="s">
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1140" s="3" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1083" s="3" t="s">
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1141" s="3" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1084" s="3" t="s">
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1142" s="3" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1085" s="3" t="s">
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1143" s="3" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1086" s="3" t="s">
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1144" s="3" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1087" s="3" t="s">
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1145" s="3" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1088" s="3" t="s">
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1146" s="3" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1089" s="3" t="s">
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1147" s="3" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1090" s="3" t="s">
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1148" s="3" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1091" s="3" t="s">
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1149" s="3" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1092" s="3" t="s">
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1150" s="3" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1093" s="3" t="s">
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1151" s="3" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1094" s="3" t="s">
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1152" s="3" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1095" s="3" t="s">
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1153" s="3" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1096" s="3" t="s">
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1154" s="3" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1097" s="3" t="s">
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1155" s="3" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1098" s="3" t="s">
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1156" s="3" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1099" s="3" t="s">
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1157" s="3" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1100" s="3" t="s">
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1158" s="3" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1101" s="3" t="s">
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1159" s="3" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1102" s="3" t="s">
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1160" s="3" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1103" s="3" t="s">
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1161" s="3" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1104" s="3" t="s">
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1162" s="3" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1105" s="3" t="s">
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1163" s="3" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1106" s="3" t="s">
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1164" s="3" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1107" s="3" t="s">
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1165" s="3" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1108" s="3" t="s">
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1166" s="3" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1109" s="3" t="s">
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1167" s="3" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1110" s="3" t="s">
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1168" s="3" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1111" s="3" t="s">
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1169" s="3" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1112" s="3" t="s">
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1170" s="3" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1113" s="3" t="s">
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1171" s="3" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1114" s="3" t="s">
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1172" s="3" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1115" s="3" t="s">
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1173" s="3" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1116" s="3" t="s">
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1174" s="3" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1117" s="3" t="s">
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1175" s="3" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1118" s="3" t="s">
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1176" s="3" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1119" s="3" t="s">
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1177" s="3" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1120" s="3" t="s">
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1178" s="3" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1121" s="3" t="s">
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1179" s="3" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1122" s="3" t="s">
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1180" s="3" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1123" s="3" t="s">
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1181" s="3" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1124" s="3" t="s">
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1182" s="3" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1125" s="3" t="s">
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1183" s="3" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1126" s="3" t="s">
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1184" s="3" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1127" s="3" t="s">
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1185" s="3" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1128" s="3" t="s">
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1186" s="3" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1129" s="3" t="s">
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1187" s="3" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1130" s="3" t="s">
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1188" s="3" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1131" s="3" t="s">
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1189" s="3" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1132" s="3" t="s">
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1190" s="3" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1133" s="3" t="s">
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1191" s="3" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1134" s="3" t="s">
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1192" s="3" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1135" s="3" t="s">
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1193" s="3" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1136" s="3" t="s">
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1194" s="3" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1137" s="3" t="s">
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1195" s="3" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1138" s="3" t="s">
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1196" s="3" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1139" s="3" t="s">
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1197" s="3" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1140" s="3" t="s">
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1198" s="3" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1141" s="3" t="s">
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1199" s="3" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1142" s="3" t="s">
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1200" s="3" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1143" s="3" t="s">
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1201" s="3" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1144" s="3" t="s">
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1202" s="3" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1145" s="3" t="s">
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1203" s="3" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1146" s="3" t="s">
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1204" s="3" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1147" s="3" t="s">
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1205" s="3" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1148" s="3" t="s">
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1206" s="3" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1149" s="3" t="s">
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1207" s="3" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1150" s="3" t="s">
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1208" s="3" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1151" s="3" t="s">
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1209" s="3" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1152" s="3" t="s">
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1210" s="3" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1153" s="3" t="s">
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1211" s="3" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1154" s="3" t="s">
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1212" s="3" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1155" s="3" t="s">
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1213" s="3" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1156" s="3" t="s">
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1214" s="3" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1157" s="3" t="s">
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1215" s="3" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1158" s="3" t="s">
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1216" s="3" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1159" s="3" t="s">
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1217" s="3" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1160" s="3" t="s">
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1218" s="3" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1161" s="3" t="s">
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1219" s="3" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1162" s="3" t="s">
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1220" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1163" s="3" t="s">
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1221" s="3" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1164" s="3" t="s">
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1222" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1165" s="3" t="s">
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1223" s="3" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1166" s="3" t="s">
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1224" s="3" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1167" s="3" t="s">
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1225" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1168" s="3" t="s">
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1226" s="3" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1169" s="3" t="s">
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1227" s="3" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1170" s="3" t="s">
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1228" s="3" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1171" s="3" t="s">
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1229" s="3" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1172" s="3" t="s">
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1230" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1173" s="3" t="s">
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1231" s="3" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1174" s="3" t="s">
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1232" s="3" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1175" s="3" t="s">
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1233" s="3" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1176" s="3" t="s">
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1234" s="3" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1177" s="3" t="s">
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1235" s="3" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1178" s="3" t="s">
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1236" s="3" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1179" s="3" t="s">
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1237" s="3" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1180" s="3" t="s">
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1238" s="3" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1181" s="3" t="s">
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1239" s="3" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1182" s="3" t="s">
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1240" s="3" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1183" s="3" t="s">
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1241" s="3" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1184" s="3" t="s">
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1242" s="3" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1185" s="3" t="s">
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1243" s="3" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1186" s="3" t="s">
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1244" s="3" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1187" s="3" t="s">
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1245" s="3" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1188" s="3" t="s">
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1246" s="3" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1189" s="3" t="s">
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1247" s="3" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1190" s="3" t="s">
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1248" s="3" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1191" s="3" t="s">
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1249" s="3" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1192" s="3" t="s">
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1250" s="3" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1193" s="3" t="s">
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1251" s="3" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1194" s="3" t="s">
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1252" s="3" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1195" s="3" t="s">
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1253" s="3" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1196" s="3" t="s">
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1254" s="3" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1197" s="3" t="s">
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1255" s="3" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1198" s="3" t="s">
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1256" s="3" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1199" s="3" t="s">
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1257" s="3" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1200" s="3" t="s">
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1258" s="3" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1201" s="3" t="s">
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1259" s="3" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1202" s="3" t="s">
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1260" s="3" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1203" s="3" t="s">
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1261" s="3" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1204" s="3" t="s">
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1262" s="3" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1205" s="3" t="s">
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1263" s="3" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1206" s="3" t="s">
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1264" s="3" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1207" s="3" t="s">
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1265" s="3" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1208" s="3" t="s">
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1266" s="3" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1209" s="3" t="s">
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1267" s="3" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1210" s="3" t="s">
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1268" s="3" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1211" s="3" t="s">
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1269" s="3" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1212" s="3" t="s">
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1270" s="3" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1213" s="3" t="s">
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1271" s="3" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1214" s="3" t="s">
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1272" s="3" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1215" s="3" t="s">
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1273" s="3" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1216" s="3" t="s">
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1274" s="3" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1217" s="3" t="s">
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1275" s="3" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1218" s="3" t="s">
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1276" s="3" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1219" s="3" t="s">
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1277" s="3" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1220" s="3" t="s">
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1278" s="3" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1221" s="3" t="s">
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1279" s="3" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1222" s="3" t="s">
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1280" s="3" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1223" s="3" t="s">
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1281" s="3" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1224" s="3" t="s">
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1282" s="3" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1225" s="3" t="s">
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1283" s="3" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1226" s="3" t="s">
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1284" s="3" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1227" s="3" t="s">
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1285" s="3" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1228" s="3" t="s">
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1286" s="3" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1229" s="3" t="s">
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1287" s="3" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1230" s="3" t="s">
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1288" s="3" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1231" s="3" t="s">
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1289" s="3" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1232" s="3" t="s">
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1290" s="3" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1233" s="3" t="s">
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1291" s="3" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1234" s="3" t="s">
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1292" s="3" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1235" s="3" t="s">
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1293" s="3" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1236" s="3" t="s">
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1294" s="3" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1237" s="3" t="s">
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1295" s="3" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1238" s="3" t="s">
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1296" s="3" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1239" s="3" t="s">
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1297" s="3" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1240" s="3" t="s">
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1298" s="3" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1241" s="3" t="s">
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1299" s="3" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1242" s="3" t="s">
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1300" s="3" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1243" s="3" t="s">
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1301" s="3" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1244" s="3" t="s">
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1302" s="3" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1245" s="3" t="s">
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1303" s="3" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1246" s="3" t="s">
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1304" s="3" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1247" s="3" t="s">
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1305" s="3" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1248" s="3" t="s">
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1306" s="3" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1249" s="3" t="s">
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1307" s="3" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1250" s="3" t="s">
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1308" s="3" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1251" s="3" t="s">
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1309" s="3" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1252" s="3" t="s">
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1310" s="3" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1253" s="3" t="s">
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1311" s="3" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1254" s="3" t="s">
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1312" s="3" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1255" s="3" t="s">
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1313" s="3" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1256" s="3" t="s">
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1314" s="3" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1257" s="3" t="s">
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1315" s="3" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1258" s="3" t="s">
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1316" s="3" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1259" s="3" t="s">
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1317" s="3" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1260" s="3" t="s">
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1318" s="3" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1261" s="3" t="s">
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1319" s="3" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1262" s="3" t="s">
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1320" s="3" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1263" s="3" t="s">
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1321" s="3" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1264" s="3" t="s">
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1322" s="3" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1265" s="3" t="s">
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1323" s="3" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1266" s="3" t="s">
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1324" s="3" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1267" s="3" t="s">
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1325" s="3" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1268" s="3" t="s">
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1326" s="3" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1269" s="3" t="s">
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1327" s="3" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1270" s="3" t="s">
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1328" s="3" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1271" s="3" t="s">
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1329" s="3" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1272" s="3" t="s">
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1330" s="3" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1273" s="3" t="s">
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1331" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1274" s="3" t="s">
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1332" s="3" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1275" s="3" t="s">
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1333" s="3" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1276" s="3" t="s">
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1334" s="3" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1277" s="3" t="s">
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1335" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1278" s="3" t="s">
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1336" s="3" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1279" s="3" t="s">
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1337" s="3" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1280" s="3" t="s">
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1338" s="3" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1281" s="3" t="s">
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1339" s="3" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1282" s="3" t="s">
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1340" s="3" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1283" s="3" t="s">
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1341" s="3" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1284" s="3" t="s">
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1342" s="3" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1285" s="3" t="s">
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1343" s="3" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1286" s="3" t="s">
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1344" s="3" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1287" s="3" t="s">
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1345" s="3" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1288" s="3" t="s">
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1346" s="3" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1289" s="3" t="s">
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1347" s="3" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1290" s="3" t="s">
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1348" s="3" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1291" s="3" t="s">
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1349" s="3" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1292" s="3" t="s">
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1350" s="3" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1293" s="3" t="s">
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1351" s="3" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1294" s="3" t="s">
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1352" s="3" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1295" s="3" t="s">
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1353" s="3" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1296" s="3" t="s">
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1354" s="3" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1297" s="3" t="s">
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1355" s="3" t="s">
         <v>1294</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{1E48F724-5EB7-714E-BCF9-D6DFF11B91D6}"/>
+  <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HJA_scripts/10_eo_data/environmental_covariate_descriptions.xlsx
+++ b/HJA_scripts/10_eo_data/environmental_covariate_descriptions.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="2280" windowWidth="27636" windowHeight="16944"/>
+    <workbookView xWindow="1164" yWindow="2280" windowWidth="27636" windowHeight="16944" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="original vars" sheetId="1" r:id="rId1"/>
+    <sheet name="vars update" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'original vars'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1536">
   <si>
     <t>SiteName</t>
   </si>
@@ -4287,6 +4288,363 @@
   </si>
   <si>
     <t>Same as SiteName?</t>
+  </si>
+  <si>
+    <t>ht30</t>
+  </si>
+  <si>
+    <t>gt4_r30</t>
+  </si>
+  <si>
+    <t>gt4_250</t>
+  </si>
+  <si>
+    <t>gt4_500</t>
+  </si>
+  <si>
+    <t>cut_r</t>
+  </si>
+  <si>
+    <t>cut_msk</t>
+  </si>
+  <si>
+    <t>cut_40msk</t>
+  </si>
+  <si>
+    <t>cut_r1k</t>
+  </si>
+  <si>
+    <t>cut_r500</t>
+  </si>
+  <si>
+    <t>cut_r250</t>
+  </si>
+  <si>
+    <t>cut40_r1k</t>
+  </si>
+  <si>
+    <t>cut40_r500</t>
+  </si>
+  <si>
+    <t>cut40_r250</t>
+  </si>
+  <si>
+    <t>be30</t>
+  </si>
+  <si>
+    <t>tri30</t>
+  </si>
+  <si>
+    <t>slope30</t>
+  </si>
+  <si>
+    <t>aspect30</t>
+  </si>
+  <si>
+    <t>Nss30</t>
+  </si>
+  <si>
+    <t>Ess30</t>
+  </si>
+  <si>
+    <t>twi30</t>
+  </si>
+  <si>
+    <t>tpi250</t>
+  </si>
+  <si>
+    <t>tpi500</t>
+  </si>
+  <si>
+    <t>tpi1k</t>
+  </si>
+  <si>
+    <t>DistStream</t>
+  </si>
+  <si>
+    <t>DistRoad</t>
+  </si>
+  <si>
+    <t>ndmi_stdDev_r100</t>
+  </si>
+  <si>
+    <t>ndmi_stdDev_r250</t>
+  </si>
+  <si>
+    <t>ndmi_stdDev_r500</t>
+  </si>
+  <si>
+    <t>nbr_stdDev_r100</t>
+  </si>
+  <si>
+    <t>nbr_stdDev_r250</t>
+  </si>
+  <si>
+    <t>nbr_stdDev_r500</t>
+  </si>
+  <si>
+    <t>ndvi_p5_r100</t>
+  </si>
+  <si>
+    <t>ndvi_p5_r250</t>
+  </si>
+  <si>
+    <t>ndvi_p5_r500</t>
+  </si>
+  <si>
+    <t>ndvi_p50_r100</t>
+  </si>
+  <si>
+    <t>ndvi_p50_r250</t>
+  </si>
+  <si>
+    <t>ndvi_p50_r500</t>
+  </si>
+  <si>
+    <t>ndvi_p95_r100</t>
+  </si>
+  <si>
+    <t>ndvi_p95_r250</t>
+  </si>
+  <si>
+    <t>ndvi_p95_r500</t>
+  </si>
+  <si>
+    <t>ndmi_p5_r100</t>
+  </si>
+  <si>
+    <t>ndmi_p5_r250</t>
+  </si>
+  <si>
+    <t>ndmi_p5_r500</t>
+  </si>
+  <si>
+    <t>ndmi_p50_r100</t>
+  </si>
+  <si>
+    <t>ndmi_p50_r250</t>
+  </si>
+  <si>
+    <t>ndmi_p50_r500</t>
+  </si>
+  <si>
+    <t>ndmi_p95_r100</t>
+  </si>
+  <si>
+    <t>ndmi_p95_r250</t>
+  </si>
+  <si>
+    <t>ndmi_p95_r500</t>
+  </si>
+  <si>
+    <t>LC08_045029_20180726_B1</t>
+  </si>
+  <si>
+    <t>LC08_045029_20180726_B3</t>
+  </si>
+  <si>
+    <t>LC08_045029_20180726_B4</t>
+  </si>
+  <si>
+    <t>LC08_045029_20180726_B5</t>
+  </si>
+  <si>
+    <t>LC08_045029_20180726_B7</t>
+  </si>
+  <si>
+    <t>LC08_045029_20180726_B10</t>
+  </si>
+  <si>
+    <t>meanT_annual</t>
+  </si>
+  <si>
+    <t>lg_DistStream</t>
+  </si>
+  <si>
+    <t>lg_DistRoad</t>
+  </si>
+  <si>
+    <t>lg_cover2m_max</t>
+  </si>
+  <si>
+    <t>lg_cover2m_4m</t>
+  </si>
+  <si>
+    <t>lg_cover4m_16m</t>
+  </si>
+  <si>
+    <t>Sample vars</t>
+  </si>
+  <si>
+    <t>Predictor vars</t>
+  </si>
+  <si>
+    <t>equivalent to be30 and elevation_m above</t>
+  </si>
+  <si>
+    <t>Previous vars</t>
+  </si>
+  <si>
+    <t>Area with or without disturbance (logging)</t>
+  </si>
+  <si>
+    <t>Area with or without disturbance (logging) in the last 40 years</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>proportion of area ever been logged (disturbed) within 500m radius</t>
+  </si>
+  <si>
+    <t>proportion of area ever been logged (disturbed) within 250m radius</t>
+  </si>
+  <si>
+    <t>proportion of area logged (disturbed) within last 40 years within 250m radius</t>
+  </si>
+  <si>
+    <t>proportion of area logged (disturbed) within last 40 years within 500m radius</t>
+  </si>
+  <si>
+    <t>proportion of area logged (disturbed) within last 40 years within 1km radius</t>
+  </si>
+  <si>
+    <t>proportion of area ever been logged (disturbed) within 1km radius</t>
+  </si>
+  <si>
+    <t>elevation in m derived from LIDAR (bare earth tif) at 30 m resolution (equivalent to elevation_m)</t>
+  </si>
+  <si>
+    <t>above logged log(x+0.001)</t>
+  </si>
+  <si>
+    <t>distance to road logged log(x+0.001)</t>
+  </si>
+  <si>
+    <t>distance to stream logged log(x+0.001)</t>
+  </si>
+  <si>
+    <t>standard deviation of annual NDMI, averaged over 250m radius</t>
+  </si>
+  <si>
+    <t>standard deviation of annual NDMI, averaged over 500m radius</t>
+  </si>
+  <si>
+    <t>standard deviation of annual NDMI, averaged over 100m radius = In Landsat 8, NDMI = (Band 5 – Band 6) / (Band 5 + Band 6)</t>
+  </si>
+  <si>
+    <t>standard deviation of annual NBR, averaged over 500m radius  = NBR = in Landsat 8 (Band 5 – Band 7) / (Band 5 + Band 7)</t>
+  </si>
+  <si>
+    <t>5% percentile of annual NDVI averaged over 100m radius.  Landsat 8, NDVI = (Band 5 – Band 4) / (Band 5 + Band 4).</t>
+  </si>
+  <si>
+    <t>5% percentile of annual NDVI averaged over 500m radius.  Landsat 8, NDVI = (Band 5 – Band 4) / (Band 5 + Band 4).</t>
+  </si>
+  <si>
+    <t>5% percentile of annual NDVI averaged over 250m radius.  Landsat 8, NDVI = (Band 5 – Band 4) / (Band 5 + Band 4).</t>
+  </si>
+  <si>
+    <t>median annual NDVI averaged over 100m radius</t>
+  </si>
+  <si>
+    <t>median annual NDVI averaged over 500m radius</t>
+  </si>
+  <si>
+    <t>median annual NDVI averaged over 250m radius</t>
+  </si>
+  <si>
+    <t>95% percentile annual NDVI over 100m radius</t>
+  </si>
+  <si>
+    <t>95% percentile annual NDVI over 500m radius</t>
+  </si>
+  <si>
+    <t>95% percentile annual NDVI over 250m radius</t>
+  </si>
+  <si>
+    <t>5% percentile annual NDMI over 100m radius</t>
+  </si>
+  <si>
+    <t>Landsat band B1 reflectance. 2018 07 26</t>
+  </si>
+  <si>
+    <t>Landsat band B10 reflectance. 2018 07 26</t>
+  </si>
+  <si>
+    <t>Landsat band B7 reflectance. 2018 07 26</t>
+  </si>
+  <si>
+    <t>Landsat band B5 reflectance. 2018 07 26</t>
+  </si>
+  <si>
+    <t>Landsat band B4 reflectance. 2018 07 26</t>
+  </si>
+  <si>
+    <t>Landsat band B3 reflectance. 2018 07 26</t>
+  </si>
+  <si>
+    <t>95% percentile NDMI over 100m radius</t>
+  </si>
+  <si>
+    <t>95% percentile NDMI over 500m radius</t>
+  </si>
+  <si>
+    <t>95% percentile NDMI over 250m radius</t>
+  </si>
+  <si>
+    <t>median NDMI over 100 m radisu</t>
+  </si>
+  <si>
+    <t>median NDMI over 250 m radius</t>
+  </si>
+  <si>
+    <t>median NDMI over 500 m radius</t>
+  </si>
+  <si>
+    <t>5% percentile annual NDMI over 250m radius</t>
+  </si>
+  <si>
+    <t>5% percentile annual NDMI over 500m radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard deviation of annual NBR over 250m radius </t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard deviation of annual NBR over 500m radius </t>
+  </si>
+  <si>
+    <t>be10 - be500 (equivalent to TPI above)</t>
+  </si>
+  <si>
+    <t>Proportion of vegetation cover over 4m, in 30 m radius</t>
+  </si>
+  <si>
+    <t>Proportion of vegetation cover over 4m, in 500 m radius</t>
+  </si>
+  <si>
+    <t>Proportion of vegetation cover over 4m, in 250 m radius</t>
+  </si>
+  <si>
+    <t>Topographic position index over 1km</t>
+  </si>
+  <si>
+    <t>Topographic position index over 500 m</t>
+  </si>
+  <si>
+    <t>Topographic position index over 250 m (central pixel - average elevation in surrounding window)</t>
+  </si>
+  <si>
+    <t># these vars produced as raster stack for training and prediction</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Years since last disturbance (areas without disturbance are NA) (ie 1925?- 2016)</t>
   </si>
 </sst>
 </file>
@@ -4317,7 +4675,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4348,6 +4706,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4361,7 +4725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4369,6 +4733,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4685,9 +5057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11908,4 +12280,1375 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="126.296875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="G60" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="G61" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="G62" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="G63" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="G64" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="G65" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="G66" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="G67" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="G68" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="G69" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="G70" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="G71" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="G72" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="G73" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="G74" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="G75" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="G76" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="G80" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="G81" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="G82" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="G83" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="G84" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="G85" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="G86" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="G87" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="G88" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="G89" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="G90" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="G91" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="G92" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="7" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="7" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HJA_scripts/10_eo_data/environmental_covariate_descriptions.xlsx
+++ b/HJA_scripts/10_eo_data/environmental_covariate_descriptions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\gitHRepos\HJA_analyses_Kelpie\HJA_scripts\10_eo_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Luo_Mingjie_Oregon/HJA_analyses_Kelpie/HJA_scripts/10_eo_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B9A461-B2E3-0641-AD0F-0F175B477FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="2280" windowWidth="27636" windowHeight="16944" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original vars" sheetId="1" r:id="rId1"/>
@@ -23,15 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -4650,7 +4642,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5054,7 +5046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5062,15 +5054,15 @@
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="112.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="112.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1295</v>
       </c>
@@ -5087,7 +5079,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5098,7 +5090,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5112,7 +5104,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5126,7 +5118,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5140,7 +5132,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -5154,7 +5146,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -5168,7 +5160,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -5179,7 +5171,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -5190,7 +5182,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -5201,7 +5193,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -5212,7 +5204,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -5223,7 +5215,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -5234,7 +5226,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -5245,7 +5237,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -5256,7 +5248,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -5267,7 +5259,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -5278,7 +5270,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -5289,7 +5281,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -5300,7 +5292,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -5311,7 +5303,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -5322,7 +5314,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -5333,7 +5325,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -5344,7 +5336,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -5355,7 +5347,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -5366,7 +5358,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -5377,7 +5369,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -5388,7 +5380,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -5399,7 +5391,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -5410,7 +5402,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -5421,7 +5413,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -5432,7 +5424,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -5443,7 +5435,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -5454,7 +5446,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -5465,7 +5457,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -5476,7 +5468,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -5487,7 +5479,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -5498,7 +5490,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -5509,7 +5501,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>1414</v>
       </c>
@@ -5523,7 +5515,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>1350</v>
       </c>
@@ -5535,7 +5527,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>1352</v>
       </c>
@@ -5547,7 +5539,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>1354</v>
       </c>
@@ -5559,7 +5551,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>1356</v>
       </c>
@@ -5571,7 +5563,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>1358</v>
       </c>
@@ -5583,7 +5575,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>1360</v>
       </c>
@@ -5595,7 +5587,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>1362</v>
       </c>
@@ -5607,7 +5599,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>1364</v>
       </c>
@@ -5619,7 +5611,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>1366</v>
       </c>
@@ -5631,7 +5623,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>1368</v>
       </c>
@@ -5643,7 +5635,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>1370</v>
       </c>
@@ -5655,7 +5647,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>1372</v>
       </c>
@@ -5667,7 +5659,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>1374</v>
       </c>
@@ -5679,7 +5671,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>1376</v>
       </c>
@@ -5691,7 +5683,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>1378</v>
       </c>
@@ -5703,7 +5695,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>1380</v>
       </c>
@@ -5715,7 +5707,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>1382</v>
       </c>
@@ -5727,7 +5719,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>1384</v>
       </c>
@@ -5739,7 +5731,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>1386</v>
       </c>
@@ -5751,7 +5743,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>1388</v>
       </c>
@@ -5763,7 +5755,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>1390</v>
       </c>
@@ -5775,7 +5767,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>1392</v>
       </c>
@@ -5787,7 +5779,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>1394</v>
       </c>
@@ -5799,7 +5791,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>1396</v>
       </c>
@@ -5811,7 +5803,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>1398</v>
       </c>
@@ -5823,7 +5815,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>1400</v>
       </c>
@@ -5835,7 +5827,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>1402</v>
       </c>
@@ -5847,7 +5839,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>1404</v>
       </c>
@@ -5859,7 +5851,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>1406</v>
       </c>
@@ -5871,7 +5863,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>1408</v>
       </c>
@@ -5883,7 +5875,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>1410</v>
       </c>
@@ -5895,88 +5887,88 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>37</v>
       </c>
@@ -5987,7 +5979,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>38</v>
       </c>
@@ -5995,6313 +5987,6314 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="3" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="3" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="3" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="3" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="3" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="3" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="3" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="3" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" s="3" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" s="3" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" s="3" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="3" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="3" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="3" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="3" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="3" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="3" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="3" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="3" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" s="3" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" s="3" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" s="3" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" s="3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="3" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="3" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" s="3" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" s="3" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" s="3" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="3" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" s="3" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="3" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="3" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" s="3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" s="3" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" s="3" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" s="3" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" s="3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" s="3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" s="3" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" s="3" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" s="3" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" s="3" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" s="3" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="3" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="3" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" s="3" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" s="3" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" s="3" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" s="3" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" s="3" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" s="3" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" s="3" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" s="3" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" s="3" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" s="3" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="3" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" s="3" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" s="3" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="3" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" s="3" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" s="3" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" s="3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" s="3" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" s="3" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" s="3" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" s="3" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" s="3" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" s="3" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" s="3" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="3" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" s="3" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" s="3" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" s="3" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" s="3" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" s="3" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" s="3" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A820" s="3" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A821" s="3" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A822" s="3" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A823" s="3" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A824" s="3" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A825" s="3" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A826" s="3" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A827" s="3" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A828" s="3" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A829" s="3" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A830" s="3" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A831" s="3" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A832" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A833" s="3" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A834" s="3" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A835" s="3" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A836" s="3" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A837" s="3" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A838" s="3" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A839" s="3" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A840" s="3" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A841" s="3" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A842" s="3" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A843" s="3" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A844" s="3" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A845" s="3" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A846" s="3" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A847" s="3" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A848" s="3" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A849" s="3" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A850" s="3" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A851" s="3" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A852" s="3" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A853" s="3" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A854" s="3" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A855" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A856" s="3" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A857" s="3" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A858" s="3" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A859" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A860" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A861" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A862" s="3" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A863" s="3" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A864" s="3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A865" s="3" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A866" s="3" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A867" s="3" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A868" s="3" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A869" s="3" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A870" s="3" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A871" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A872" s="3" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A873" s="3" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A874" s="3" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A875" s="3" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A876" s="3" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A877" s="3" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A878" s="3" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A879" s="3" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A880" s="3" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A881" s="3" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A882" s="3" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A883" s="3" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A884" s="3" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A885" s="3" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A886" s="3" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A887" s="3" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A888" s="3" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A889" s="3" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A890" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A891" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A892" s="3" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A893" s="3" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A894" s="3" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A895" s="3" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A896" s="3" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A897" s="3" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A898" s="3" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A899" s="3" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A900" s="3" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A901" s="3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A902" s="3" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A903" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A904" s="3" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A905" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A906" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A907" s="3" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A908" s="3" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A909" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A910" s="3" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A911" s="3" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A912" s="3" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A913" s="3" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A914" s="3" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A915" s="3" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A916" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A917" s="3" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A918" s="3" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A919" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A920" s="3" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A921" s="3" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A922" s="3" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A923" s="3" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A924" s="3" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A925" s="3" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A926" s="3" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A927" s="3" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A928" s="3" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A929" s="3" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A930" s="3" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A931" s="3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A932" s="3" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A933" s="3" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A934" s="3" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A935" s="3" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A936" s="3" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A937" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A938" s="3" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A939" s="3" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A940" s="3" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A941" s="3" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A942" s="3" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A943" s="3" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A944" s="3" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A945" s="3" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A946" s="3" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A947" s="3" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A948" s="3" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A949" s="3" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A950" s="3" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A951" s="3" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A952" s="3" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A953" s="3" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A954" s="3" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A955" s="3" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A956" s="3" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A957" s="3" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A958" s="3" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A959" s="3" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A960" s="3" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A961" s="3" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A962" s="3" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A963" s="3" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A964" s="3" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A965" s="3" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A966" s="3" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A967" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A968" s="3" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A969" s="3" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A970" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A971" s="3" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A972" s="3" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A973" s="3" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A974" s="3" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A975" s="3" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A976" s="3" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A977" s="3" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A978" s="3" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A979" s="3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A980" s="3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A981" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A982" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A983" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A984" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A985" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A986" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A987" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A988" s="3" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A989" s="3" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A990" s="3" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A991" s="3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A992" s="3" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A993" s="3" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A994" s="3" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A995" s="3" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A996" s="3" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A997" s="3" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A998" s="3" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A999" s="3" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1000" s="3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1001" s="3" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1002" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1003" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1004" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1005" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1006" s="3" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1007" s="3" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1008" s="3" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1009" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1010" s="3" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1011" s="3" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1012" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1013" s="3" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1014" s="3" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1015" s="3" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1016" s="3" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1017" s="3" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1018" s="3" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1019" s="3" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1020" s="3" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1021" s="3" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1022" s="3" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1023" s="3" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1024" s="3" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1025" s="3" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1026" s="3" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1027" s="3" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1028" s="3" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1029" s="3" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1030" s="3" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1031" s="3" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1032" s="3" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1033" s="3" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1034" s="3" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1035" s="3" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1036" s="3" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1037" s="3" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1038" s="3" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1039" s="3" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1040" s="3" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1041" s="3" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1042" s="3" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1043" s="3" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1044" s="3" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1045" s="3" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1046" s="3" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1047" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1048" s="3" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1049" s="3" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1050" s="3" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1051" s="3" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1052" s="3" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1053" s="3" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1054" s="3" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1055" s="3" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1056" s="3" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1057" s="3" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1058" s="3" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1059" s="3" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1060" s="3" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1061" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1062" s="3" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1063" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1064" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1065" s="3" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1066" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1067" s="3" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1068" s="3" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1069" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1070" s="3" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1071" s="3" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1072" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1073" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1074" s="3" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1075" s="3" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1076" s="3" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1077" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1078" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1079" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1080" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1081" s="3" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1082" s="3" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1083" s="3" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1084" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1085" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1086" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1087" s="3" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1088" s="3" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1089" s="3" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1090" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1091" s="3" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1092" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1093" s="3" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1094" s="3" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1095" s="3" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1096" s="3" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1097" s="3" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1098" s="3" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1099" s="3" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1100" s="3" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1101" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1102" s="3" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1103" s="3" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1104" s="3" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1105" s="3" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1106" s="3" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1107" s="3" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1108" s="3" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1109" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1110" s="3" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1111" s="3" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1112" s="3" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1113" s="3" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1114" s="3" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1115" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1116" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1117" s="3" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1118" s="3" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1119" s="3" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1120" s="3" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1121" s="3" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1122" s="3" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1123" s="3" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1124" s="3" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1125" s="3" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1126" s="3" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1127" s="3" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1128" s="3" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1129" s="3" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1130" s="3" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1131" s="3" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1132" s="3" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1133" s="3" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1134" s="3" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1135" s="3" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1136" s="3" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1137" s="3" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1138" s="3" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1139" s="3" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1140" s="3" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1141" s="3" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1142" s="3" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1143" s="3" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1144" s="3" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1145" s="3" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1146" s="3" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1147" s="3" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1148" s="3" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1149" s="3" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1150" s="3" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1151" s="3" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1152" s="3" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1153" s="3" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1154" s="3" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1155" s="3" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1156" s="3" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1157" s="3" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1158" s="3" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1159" s="3" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1160" s="3" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1161" s="3" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1162" s="3" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1163" s="3" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1164" s="3" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1165" s="3" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1166" s="3" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1167" s="3" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1168" s="3" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1169" s="3" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1170" s="3" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1171" s="3" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1172" s="3" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1173" s="3" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1174" s="3" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1175" s="3" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1176" s="3" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1177" s="3" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1178" s="3" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1179" s="3" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1180" s="3" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1181" s="3" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1182" s="3" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1183" s="3" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1184" s="3" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1185" s="3" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1186" s="3" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1187" s="3" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1188" s="3" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1189" s="3" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1190" s="3" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1191" s="3" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1192" s="3" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1193" s="3" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1194" s="3" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1195" s="3" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1196" s="3" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1197" s="3" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1198" s="3" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1199" s="3" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1200" s="3" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1201" s="3" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1202" s="3" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1203" s="3" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1204" s="3" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1205" s="3" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1206" s="3" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1207" s="3" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1208" s="3" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1209" s="3" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1210" s="3" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1211" s="3" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1212" s="3" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1213" s="3" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1214" s="3" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1215" s="3" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1216" s="3" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1217" s="3" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1218" s="3" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1219" s="3" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1220" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1221" s="3" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1222" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1223" s="3" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1224" s="3" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1225" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1226" s="3" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1227" s="3" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1228" s="3" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1229" s="3" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1230" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1231" s="3" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1232" s="3" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1233" s="3" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1234" s="3" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1235" s="3" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1236" s="3" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1237" s="3" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1238" s="3" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1239" s="3" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1240" s="3" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1241" s="3" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1242" s="3" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1243" s="3" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1244" s="3" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1245" s="3" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1246" s="3" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1247" s="3" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1248" s="3" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1249" s="3" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1250" s="3" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1251" s="3" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1252" s="3" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1253" s="3" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1254" s="3" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1255" s="3" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1256" s="3" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1257" s="3" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1258" s="3" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1259" s="3" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1260" s="3" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1261" s="3" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1262" s="3" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1263" s="3" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1264" s="3" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1265" s="3" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1266" s="3" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1267" s="3" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1268" s="3" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1269" s="3" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1270" s="3" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1271" s="3" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1272" s="3" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1273" s="3" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1274" s="3" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1275" s="3" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1276" s="3" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1277" s="3" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1278" s="3" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1279" s="3" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1280" s="3" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1281" s="3" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1282" s="3" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1283" s="3" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1284" s="3" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1285" s="3" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1286" s="3" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1287" s="3" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1288" s="3" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1289" s="3" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1290" s="3" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1291" s="3" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1292" s="3" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1293" s="3" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1294" s="3" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1295" s="3" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1296" s="3" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1297" s="3" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1298" s="3" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1299" s="3" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1300" s="3" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1301" s="3" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1302" s="3" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1303" s="3" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1304" s="3" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1305" s="3" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1306" s="3" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1307" s="3" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1308" s="3" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1309" s="3" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1310" s="3" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1311" s="3" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1312" s="3" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1313" s="3" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1314" s="3" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1315" s="3" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1316" s="3" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1317" s="3" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1318" s="3" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1319" s="3" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1320" s="3" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1321" s="3" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1322" s="3" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1323" s="3" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1324" s="3" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1325" s="3" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1326" s="3" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1327" s="3" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1328" s="3" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1329" s="3" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1330" s="3" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1331" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1332" s="3" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1333" s="3" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1334" s="3" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1335" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1336" s="3" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1337" s="3" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1338" s="3" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1339" s="3" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1340" s="3" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1341" s="3" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1342" s="3" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1343" s="3" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1344" s="3" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1345" s="3" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1346" s="3" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1347" s="3" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1348" s="3" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1349" s="3" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1350" s="3" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1351" s="3" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1352" s="3" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1353" s="3" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1354" s="3" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1355" s="3" t="s">
         <v>1294</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="126.296875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="126.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>1534</v>
       </c>
@@ -12309,7 +12302,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1481</v>
       </c>
@@ -12332,7 +12325,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -12346,7 +12339,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -12363,7 +12356,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -12380,7 +12373,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -12397,7 +12390,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -12414,7 +12407,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -12431,7 +12424,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -12442,7 +12435,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -12453,7 +12446,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -12464,7 +12457,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>1430</v>
       </c>
@@ -12473,7 +12466,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -12487,7 +12480,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -12501,7 +12494,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -12515,14 +12508,14 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>1472</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -12536,7 +12529,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -12550,7 +12543,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>1474</v>
       </c>
@@ -12559,7 +12552,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
@@ -12573,7 +12566,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>1473</v>
       </c>
@@ -12582,7 +12575,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -12593,7 +12586,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>1421</v>
       </c>
@@ -12604,7 +12597,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>1422</v>
       </c>
@@ -12615,7 +12608,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>1423</v>
       </c>
@@ -12626,7 +12619,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>1410</v>
       </c>
@@ -12638,7 +12631,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>1425</v>
       </c>
@@ -12647,7 +12640,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>1426</v>
       </c>
@@ -12656,7 +12649,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>1427</v>
       </c>
@@ -12665,7 +12658,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>1428</v>
       </c>
@@ -12674,7 +12667,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>1429</v>
       </c>
@@ -12683,7 +12676,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
@@ -12697,7 +12690,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>17</v>
       </c>
@@ -12708,7 +12701,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>18</v>
       </c>
@@ -12719,7 +12712,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
@@ -12730,7 +12723,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
@@ -12741,7 +12734,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
@@ -12752,7 +12745,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>22</v>
       </c>
@@ -12763,7 +12756,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>23</v>
       </c>
@@ -12774,7 +12767,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>24</v>
       </c>
@@ -12785,7 +12778,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -12796,7 +12789,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>26</v>
       </c>
@@ -12807,7 +12800,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>27</v>
       </c>
@@ -12821,7 +12814,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>1476</v>
       </c>
@@ -12830,7 +12823,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>28</v>
       </c>
@@ -12844,7 +12837,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>1475</v>
       </c>
@@ -12853,7 +12846,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>29</v>
       </c>
@@ -12867,7 +12860,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>1477</v>
       </c>
@@ -12875,7 +12868,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>30</v>
       </c>
@@ -12886,7 +12879,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>31</v>
       </c>
@@ -12897,7 +12890,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>1418</v>
       </c>
@@ -12906,7 +12899,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>1419</v>
       </c>
@@ -12915,7 +12908,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>1420</v>
       </c>
@@ -12924,7 +12917,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>32</v>
       </c>
@@ -12938,7 +12931,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -12949,7 +12942,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>34</v>
       </c>
@@ -12963,7 +12956,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>35</v>
       </c>
@@ -12974,7 +12967,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>36</v>
       </c>
@@ -12988,7 +12981,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>1414</v>
       </c>
@@ -13002,7 +12995,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>1350</v>
       </c>
@@ -13014,7 +13007,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>1352</v>
       </c>
@@ -13026,7 +13019,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>1354</v>
       </c>
@@ -13038,7 +13031,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>1356</v>
       </c>
@@ -13050,7 +13043,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>1358</v>
       </c>
@@ -13062,7 +13055,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>1360</v>
       </c>
@@ -13074,7 +13067,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>1362</v>
       </c>
@@ -13086,7 +13079,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>1364</v>
       </c>
@@ -13098,7 +13091,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>1366</v>
       </c>
@@ -13110,7 +13103,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>1368</v>
       </c>
@@ -13122,7 +13115,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>1370</v>
       </c>
@@ -13137,7 +13130,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>1372</v>
       </c>
@@ -13152,7 +13145,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>1374</v>
       </c>
@@ -13167,7 +13160,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>1376</v>
       </c>
@@ -13182,7 +13175,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>1378</v>
       </c>
@@ -13197,7 +13190,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>1380</v>
       </c>
@@ -13212,7 +13205,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>1382</v>
       </c>
@@ -13224,7 +13217,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
         <v>1437</v>
       </c>
@@ -13233,7 +13226,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
         <v>1438</v>
       </c>
@@ -13242,7 +13235,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
         <v>1439</v>
       </c>
@@ -13251,7 +13244,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>1384</v>
       </c>
@@ -13263,7 +13256,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>1386</v>
       </c>
@@ -13275,7 +13268,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>1388</v>
       </c>
@@ -13287,7 +13280,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>1390</v>
       </c>
@@ -13299,7 +13292,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>1392</v>
       </c>
@@ -13311,7 +13304,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>1394</v>
       </c>
@@ -13323,7 +13316,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>1396</v>
       </c>
@@ -13335,7 +13328,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>1398</v>
       </c>
@@ -13347,7 +13340,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>1400</v>
       </c>
@@ -13359,7 +13352,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>1402</v>
       </c>
@@ -13371,7 +13364,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>1404</v>
       </c>
@@ -13383,7 +13376,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>1406</v>
       </c>
@@ -13395,7 +13388,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>1408</v>
       </c>
@@ -13407,7 +13400,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
         <v>1442</v>
       </c>
@@ -13415,7 +13408,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
         <v>1443</v>
       </c>
@@ -13423,7 +13416,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
         <v>1444</v>
       </c>
@@ -13431,7 +13424,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="7" t="s">
         <v>1445</v>
       </c>
@@ -13439,7 +13432,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="7" t="s">
         <v>1446</v>
       </c>
@@ -13447,7 +13440,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="7" t="s">
         <v>1447</v>
       </c>
@@ -13455,7 +13448,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
         <v>1448</v>
       </c>
@@ -13463,7 +13456,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
         <v>1449</v>
       </c>
@@ -13471,7 +13464,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="7" t="s">
         <v>1450</v>
       </c>
@@ -13479,7 +13472,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
         <v>1451</v>
       </c>
@@ -13487,7 +13480,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
         <v>1452</v>
       </c>
@@ -13495,7 +13488,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
         <v>1453</v>
       </c>
@@ -13503,7 +13496,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="7" t="s">
         <v>1454</v>
       </c>
@@ -13511,7 +13504,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
         <v>1455</v>
       </c>
@@ -13519,7 +13512,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
         <v>1456</v>
       </c>
@@ -13527,7 +13520,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
         <v>1457</v>
       </c>
@@ -13535,7 +13528,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
         <v>1458</v>
       </c>
@@ -13543,7 +13536,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="7" t="s">
         <v>1459</v>
       </c>
@@ -13551,7 +13544,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="7" t="s">
         <v>1460</v>
       </c>
@@ -13559,7 +13552,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="7" t="s">
         <v>1461</v>
       </c>
@@ -13567,7 +13560,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="7" t="s">
         <v>1462</v>
       </c>
@@ -13575,7 +13568,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="7" t="s">
         <v>1463</v>
       </c>
@@ -13583,7 +13576,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="7" t="s">
         <v>1464</v>
       </c>
@@ -13591,7 +13584,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
         <v>1465</v>
       </c>
@@ -13599,7 +13592,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="7" t="s">
         <v>1466</v>
       </c>
@@ -13607,7 +13600,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="7" t="s">
         <v>1467</v>
       </c>
@@ -13615,7 +13608,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
         <v>1468</v>
       </c>
@@ -13623,7 +13616,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
         <v>1469</v>
       </c>
@@ -13631,7 +13624,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="7" t="s">
         <v>1470</v>
       </c>
@@ -13639,7 +13632,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="7" t="s">
         <v>1471</v>
       </c>

--- a/HJA_scripts/10_eo_data/environmental_covariate_descriptions.xlsx
+++ b/HJA_scripts/10_eo_data/environmental_covariate_descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Luo_Mingjie_Oregon/HJA_analyses_Kelpie/HJA_scripts/10_eo_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\gitHRepos\HJA_analyses_Kelpie\HJA_scripts\10_eo_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B9A461-B2E3-0641-AD0F-0F175B477FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB3E1F1-BADD-43CF-B54B-8D676A169DA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1859" yWindow="2016" windowWidth="18851" windowHeight="9844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original vars" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'original vars'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5054,15 +5063,15 @@
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="112.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="51.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="112.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1295</v>
       </c>
@@ -5079,7 +5088,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5090,7 +5099,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5104,7 +5113,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5118,7 +5127,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5132,7 +5141,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -5146,7 +5155,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -5160,7 +5169,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -5171,7 +5180,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -5182,7 +5191,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -5193,7 +5202,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -5204,7 +5213,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -5215,7 +5224,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -5226,7 +5235,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -5237,7 +5246,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -5248,7 +5257,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -5259,7 +5268,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -5270,7 +5279,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -5281,7 +5290,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -5292,7 +5301,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -5303,7 +5312,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -5314,7 +5323,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -5325,7 +5334,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -5336,7 +5345,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -5358,7 +5367,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -5369,7 +5378,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -5380,7 +5389,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -5391,7 +5400,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -5402,7 +5411,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -5413,7 +5422,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -5424,7 +5433,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -5446,7 +5455,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -5457,7 +5466,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -5468,7 +5477,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -5479,7 +5488,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -5490,7 +5499,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -5501,7 +5510,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1414</v>
       </c>
@@ -5515,7 +5524,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>1350</v>
       </c>
@@ -5527,7 +5536,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>1352</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>1354</v>
       </c>
@@ -5551,7 +5560,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1356</v>
       </c>
@@ -5563,7 +5572,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>1358</v>
       </c>
@@ -5575,7 +5584,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>1360</v>
       </c>
@@ -5587,7 +5596,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>1362</v>
       </c>
@@ -5599,7 +5608,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>1364</v>
       </c>
@@ -5611,7 +5620,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1366</v>
       </c>
@@ -5623,7 +5632,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>1368</v>
       </c>
@@ -5635,7 +5644,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>1370</v>
       </c>
@@ -5647,7 +5656,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1372</v>
       </c>
@@ -5659,7 +5668,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>1374</v>
       </c>
@@ -5671,7 +5680,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>1376</v>
       </c>
@@ -5683,7 +5692,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>1378</v>
       </c>
@@ -5695,7 +5704,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>1380</v>
       </c>
@@ -5707,7 +5716,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>1382</v>
       </c>
@@ -5719,7 +5728,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>1384</v>
       </c>
@@ -5731,7 +5740,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>1386</v>
       </c>
@@ -5743,7 +5752,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1388</v>
       </c>
@@ -5755,7 +5764,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>1390</v>
       </c>
@@ -5767,7 +5776,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>1392</v>
       </c>
@@ -5779,7 +5788,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>1394</v>
       </c>
@@ -5791,7 +5800,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>1396</v>
       </c>
@@ -5803,7 +5812,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>1398</v>
       </c>
@@ -5815,7 +5824,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>1400</v>
       </c>
@@ -5827,7 +5836,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>1402</v>
       </c>
@@ -5839,7 +5848,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1404</v>
       </c>
@@ -5851,7 +5860,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>1406</v>
       </c>
@@ -5863,7 +5872,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>1408</v>
       </c>
@@ -5875,7 +5884,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>1410</v>
       </c>
@@ -5887,88 +5896,88 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>37</v>
       </c>
@@ -5979,7 +5988,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>38</v>
       </c>
@@ -5987,6282 +5996,6282 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" s="3" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" s="3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A578" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A580" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A582" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A584" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A586" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A588" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A590" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A592" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A594" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A596" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A598" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A600" s="3" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A602" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A604" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A606" s="3" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A608" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A610" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A612" s="3" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A614" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A616" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A618" s="3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A620" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A628" s="3" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A630" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A632" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A634" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A636" s="3" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A638" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A639" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A640" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A642" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A643" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A644" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A645" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A646" s="3" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A648" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A649" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A650" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A651" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A652" s="3" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A653" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A654" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A655" s="3" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A657" s="3" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A658" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A659" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A660" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A662" s="3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A663" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A664" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A665" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A666" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A667" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A668" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A669" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A670" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A671" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A672" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A673" s="3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A676" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A677" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A678" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A679" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A680" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A681" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A682" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A683" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A684" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A685" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A686" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A687" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A688" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A689" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A690" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A691" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A692" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A693" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A694" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A695" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A696" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A697" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A698" s="3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A699" s="3" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A700" s="3" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A701" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A702" s="3" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A703" s="3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A704" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A705" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A706" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A708" s="3" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A709" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A710" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A711" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A712" s="3" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A713" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A714" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A717" s="3" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A718" s="3" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A719" s="3" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A720" s="3" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A721" s="3" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A722" s="3" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A723" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A724" s="3" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A725" s="3" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A726" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A727" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A728" s="3" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A729" s="3" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A730" s="3" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A731" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A732" s="3" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A733" s="3" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A734" s="3" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A735" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A736" s="3" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A737" s="3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A738" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A739" s="3" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A740" s="3" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A741" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A742" s="3" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A743" s="3" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A744" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A745" s="3" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A746" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A747" s="3" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A748" s="3" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A749" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A750" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A751" s="3" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A752" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A753" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A754" s="3" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A755" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A756" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A757" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A758" s="3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A759" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A760" s="3" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A761" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A762" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A763" s="3" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A764" s="3" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A765" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A766" s="3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A767" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A768" s="3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A769" s="3" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A770" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A771" s="3" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A772" s="3" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A773" s="3" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A774" s="3" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A775" s="3" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A776" s="3" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A777" s="3" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A778" s="3" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A779" s="3" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A780" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A781" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A782" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A783" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A784" s="3" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A785" s="3" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A786" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A787" s="3" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A788" s="3" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A789" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A790" s="3" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A791" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A792" s="3" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A793" s="3" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A794" s="3" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A795" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A796" s="3" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A797" s="3" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A798" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A799" s="3" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A800" s="3" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A801" s="3" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A802" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A803" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A804" s="3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A805" s="3" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A806" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A807" s="3" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A808" s="3" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A809" s="3" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A810" s="3" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A811" s="3" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A812" s="3" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A813" s="3" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A814" s="3" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A815" s="3" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A816" s="3" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A817" s="3" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A818" s="3" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A819" s="3" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A820" s="3" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A821" s="3" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A822" s="3" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A823" s="3" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A824" s="3" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A825" s="3" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A826" s="3" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A827" s="3" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A828" s="3" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A829" s="3" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A830" s="3" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A831" s="3" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A832" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A833" s="3" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A834" s="3" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A835" s="3" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A836" s="3" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A837" s="3" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A838" s="3" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A839" s="3" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A840" s="3" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A841" s="3" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A842" s="3" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A843" s="3" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A844" s="3" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A845" s="3" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A846" s="3" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A847" s="3" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A848" s="3" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A849" s="3" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A850" s="3" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A851" s="3" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A852" s="3" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A853" s="3" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A854" s="3" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A855" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A856" s="3" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A857" s="3" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A858" s="3" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A859" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A860" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A861" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A862" s="3" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A863" s="3" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A864" s="3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A865" s="3" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A866" s="3" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A867" s="3" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A868" s="3" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A869" s="3" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A870" s="3" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A871" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A872" s="3" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A873" s="3" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A874" s="3" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A875" s="3" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A876" s="3" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A877" s="3" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A878" s="3" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A879" s="3" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A880" s="3" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A881" s="3" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A882" s="3" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A883" s="3" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A884" s="3" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A885" s="3" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A886" s="3" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A887" s="3" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A888" s="3" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A889" s="3" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A890" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A891" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A892" s="3" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A893" s="3" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A894" s="3" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A895" s="3" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A896" s="3" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A897" s="3" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A898" s="3" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A899" s="3" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A900" s="3" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A901" s="3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A902" s="3" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A903" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A904" s="3" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A905" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A906" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A907" s="3" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A908" s="3" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A909" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A910" s="3" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A911" s="3" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A912" s="3" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A913" s="3" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A914" s="3" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A915" s="3" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A916" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A917" s="3" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A918" s="3" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A919" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A920" s="3" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A921" s="3" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A922" s="3" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A923" s="3" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A924" s="3" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A925" s="3" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A926" s="3" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A927" s="3" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A928" s="3" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A929" s="3" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A930" s="3" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A931" s="3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A932" s="3" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A933" s="3" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A934" s="3" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A935" s="3" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A936" s="3" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A937" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A938" s="3" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A939" s="3" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A940" s="3" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A941" s="3" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A942" s="3" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A943" s="3" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A944" s="3" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A945" s="3" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A946" s="3" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A947" s="3" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A948" s="3" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A949" s="3" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A950" s="3" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A951" s="3" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A952" s="3" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A953" s="3" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A954" s="3" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A955" s="3" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A956" s="3" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A957" s="3" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A958" s="3" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A959" s="3" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A960" s="3" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A961" s="3" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A962" s="3" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A963" s="3" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A964" s="3" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A965" s="3" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A966" s="3" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A967" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A968" s="3" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A969" s="3" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A970" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A971" s="3" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A972" s="3" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A973" s="3" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A974" s="3" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A975" s="3" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A976" s="3" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A977" s="3" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A978" s="3" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A979" s="3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A980" s="3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A981" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A982" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A983" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A984" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A985" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A986" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A987" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A988" s="3" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A989" s="3" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A990" s="3" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A991" s="3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A992" s="3" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A993" s="3" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A994" s="3" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A995" s="3" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A996" s="3" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A997" s="3" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A998" s="3" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A999" s="3" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1000" s="3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1001" s="3" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1002" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1003" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1004" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1005" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1006" s="3" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1007" s="3" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1008" s="3" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1009" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1010" s="3" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1011" s="3" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1012" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1013" s="3" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1014" s="3" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1015" s="3" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1016" s="3" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1017" s="3" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1018" s="3" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1019" s="3" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1020" s="3" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1021" s="3" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1022" s="3" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1023" s="3" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1024" s="3" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1025" s="3" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1026" s="3" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1027" s="3" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1028" s="3" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1029" s="3" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1030" s="3" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1031" s="3" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1032" s="3" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1033" s="3" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1034" s="3" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1035" s="3" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1036" s="3" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1037" s="3" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1038" s="3" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1039" s="3" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1040" s="3" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1041" s="3" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1042" s="3" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1043" s="3" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1044" s="3" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1045" s="3" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1046" s="3" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1047" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048" s="3" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1049" s="3" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1050" s="3" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1051" s="3" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1052" s="3" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1053" s="3" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1054" s="3" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1055" s="3" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1056" s="3" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1057" s="3" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1058" s="3" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1059" s="3" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1060" s="3" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1061" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1062" s="3" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1063" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1064" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1065" s="3" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1066" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1067" s="3" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1068" s="3" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1069" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1070" s="3" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1071" s="3" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1072" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1073" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1074" s="3" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1075" s="3" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1076" s="3" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1077" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1078" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1079" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1080" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1081" s="3" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1082" s="3" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1083" s="3" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1084" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1085" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1086" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1087" s="3" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1088" s="3" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1089" s="3" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1090" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1091" s="3" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1092" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1093" s="3" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1094" s="3" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1095" s="3" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1096" s="3" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1097" s="3" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1098" s="3" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1099" s="3" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1100" s="3" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1101" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1102" s="3" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1103" s="3" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1104" s="3" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1105" s="3" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1106" s="3" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1107" s="3" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1108" s="3" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1109" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1110" s="3" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1111" s="3" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1112" s="3" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1113" s="3" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1114" s="3" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1115" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1116" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1117" s="3" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1118" s="3" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1119" s="3" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1120" s="3" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1121" s="3" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1122" s="3" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1123" s="3" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1124" s="3" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1125" s="3" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1126" s="3" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1127" s="3" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1128" s="3" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1129" s="3" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1130" s="3" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1131" s="3" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1132" s="3" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1133" s="3" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1134" s="3" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1135" s="3" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1136" s="3" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1137" s="3" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1138" s="3" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1139" s="3" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1140" s="3" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1141" s="3" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1142" s="3" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1143" s="3" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1144" s="3" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1145" s="3" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1146" s="3" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1147" s="3" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1148" s="3" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1149" s="3" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1150" s="3" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1151" s="3" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1152" s="3" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1153" s="3" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1154" s="3" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1155" s="3" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1156" s="3" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1157" s="3" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1158" s="3" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1159" s="3" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1160" s="3" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1161" s="3" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1162" s="3" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1163" s="3" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1164" s="3" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1165" s="3" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1166" s="3" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1167" s="3" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1168" s="3" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1169" s="3" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1170" s="3" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1171" s="3" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1172" s="3" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1173" s="3" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1174" s="3" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1175" s="3" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1176" s="3" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1177" s="3" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1178" s="3" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1179" s="3" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1180" s="3" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1181" s="3" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1182" s="3" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1183" s="3" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1184" s="3" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1185" s="3" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1186" s="3" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1187" s="3" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1188" s="3" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1189" s="3" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1190" s="3" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1191" s="3" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1192" s="3" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1193" s="3" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1194" s="3" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1195" s="3" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1196" s="3" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1197" s="3" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1198" s="3" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1199" s="3" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1200" s="3" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1201" s="3" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1202" s="3" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1203" s="3" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1204" s="3" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1205" s="3" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1206" s="3" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1207" s="3" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1208" s="3" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1209" s="3" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1210" s="3" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1211" s="3" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1212" s="3" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1213" s="3" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1214" s="3" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1215" s="3" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1216" s="3" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1217" s="3" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1218" s="3" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1219" s="3" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1220" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1221" s="3" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1222" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1223" s="3" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1224" s="3" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1225" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1226" s="3" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1227" s="3" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1228" s="3" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1229" s="3" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1230" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1231" s="3" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1232" s="3" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1233" s="3" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1234" s="3" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1235" s="3" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1236" s="3" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1237" s="3" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1238" s="3" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1239" s="3" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1240" s="3" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1241" s="3" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1242" s="3" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1243" s="3" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1244" s="3" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1245" s="3" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1246" s="3" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1247" s="3" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1248" s="3" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1249" s="3" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1250" s="3" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1251" s="3" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1252" s="3" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1253" s="3" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1254" s="3" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1255" s="3" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1256" s="3" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1257" s="3" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1258" s="3" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1259" s="3" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1260" s="3" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1261" s="3" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1262" s="3" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1263" s="3" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1264" s="3" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1265" s="3" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1266" s="3" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1267" s="3" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1268" s="3" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1269" s="3" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1270" s="3" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1271" s="3" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1272" s="3" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1273" s="3" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1274" s="3" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1275" s="3" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1276" s="3" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1277" s="3" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1278" s="3" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1279" s="3" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1280" s="3" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1281" s="3" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1282" s="3" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1283" s="3" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1284" s="3" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1285" s="3" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1286" s="3" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1287" s="3" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1288" s="3" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1289" s="3" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1290" s="3" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1291" s="3" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1292" s="3" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1293" s="3" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1294" s="3" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1295" s="3" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1296" s="3" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1297" s="3" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1298" s="3" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1299" s="3" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1300" s="3" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1301" s="3" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1302" s="3" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1303" s="3" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1304" s="3" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1305" s="3" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1306" s="3" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1307" s="3" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1308" s="3" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1309" s="3" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1310" s="3" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1311" s="3" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1312" s="3" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1313" s="3" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1314" s="3" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1315" s="3" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1316" s="3" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1317" s="3" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1318" s="3" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1319" s="3" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1320" s="3" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1321" s="3" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1322" s="3" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1323" s="3" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1324" s="3" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1325" s="3" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1326" s="3" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1327" s="3" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1328" s="3" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1329" s="3" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1330" s="3" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1331" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1332" s="3" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1333" s="3" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1334" s="3" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1335" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1336" s="3" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1337" s="3" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1338" s="3" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1339" s="3" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1340" s="3" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1341" s="3" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1342" s="3" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1343" s="3" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1344" s="3" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1345" s="3" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1346" s="3" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1347" s="3" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1348" s="3" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1349" s="3" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1350" s="3" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1351" s="3" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1352" s="3" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1353" s="3" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1354" s="3" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1355" s="3" t="s">
         <v>1294</v>
       </c>
@@ -12283,18 +12292,18 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="126.33203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1534</v>
       </c>
@@ -12302,7 +12311,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1481</v>
       </c>
@@ -12325,7 +12334,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -12339,7 +12348,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -12356,7 +12365,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -12373,7 +12382,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -12390,7 +12399,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -12407,7 +12416,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -12424,7 +12433,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -12435,7 +12444,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -12446,7 +12455,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -12457,7 +12466,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>1430</v>
       </c>
@@ -12466,7 +12475,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -12480,7 +12489,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -12494,7 +12503,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -12508,14 +12517,14 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>1472</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -12529,7 +12538,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -12543,7 +12552,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>1474</v>
       </c>
@@ -12552,7 +12561,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
@@ -12566,7 +12575,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>1473</v>
       </c>
@@ -12575,7 +12584,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -12586,7 +12595,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>1421</v>
       </c>
@@ -12597,7 +12606,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>1422</v>
       </c>
@@ -12608,7 +12617,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>1423</v>
       </c>
@@ -12619,7 +12628,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>1410</v>
       </c>
@@ -12631,7 +12640,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>1425</v>
       </c>
@@ -12640,7 +12649,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>1426</v>
       </c>
@@ -12649,7 +12658,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>1427</v>
       </c>
@@ -12658,7 +12667,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>1428</v>
       </c>
@@ -12667,7 +12676,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>1429</v>
       </c>
@@ -12676,7 +12685,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
@@ -12690,7 +12699,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>17</v>
       </c>
@@ -12701,7 +12710,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>18</v>
       </c>
@@ -12712,7 +12721,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
@@ -12723,7 +12732,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
@@ -12734,7 +12743,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
@@ -12745,7 +12754,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>22</v>
       </c>
@@ -12756,7 +12765,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>23</v>
       </c>
@@ -12767,7 +12776,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>24</v>
       </c>
@@ -12778,7 +12787,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -12789,7 +12798,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>26</v>
       </c>
@@ -12800,7 +12809,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>27</v>
       </c>
@@ -12814,7 +12823,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>1476</v>
       </c>
@@ -12823,7 +12832,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>28</v>
       </c>
@@ -12837,7 +12846,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>1475</v>
       </c>
@@ -12846,7 +12855,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>29</v>
       </c>
@@ -12860,7 +12869,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>1477</v>
       </c>
@@ -12868,7 +12877,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>30</v>
       </c>
@@ -12879,7 +12888,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>31</v>
       </c>
@@ -12890,7 +12899,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>1418</v>
       </c>
@@ -12899,7 +12908,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>1419</v>
       </c>
@@ -12908,7 +12917,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>1420</v>
       </c>
@@ -12917,7 +12926,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>32</v>
       </c>
@@ -12931,7 +12940,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -12942,7 +12951,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>34</v>
       </c>
@@ -12956,7 +12965,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>35</v>
       </c>
@@ -12967,7 +12976,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>36</v>
       </c>
@@ -12981,7 +12990,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>1414</v>
       </c>
@@ -12995,7 +13004,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>1350</v>
       </c>
@@ -13007,7 +13016,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>1352</v>
       </c>
@@ -13019,7 +13028,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>1354</v>
       </c>
@@ -13031,7 +13040,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>1356</v>
       </c>
@@ -13043,7 +13052,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>1358</v>
       </c>
@@ -13055,7 +13064,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>1360</v>
       </c>
@@ -13067,7 +13076,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>1362</v>
       </c>
@@ -13079,7 +13088,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>1364</v>
       </c>
@@ -13091,7 +13100,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>1366</v>
       </c>
@@ -13103,7 +13112,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>1368</v>
       </c>
@@ -13115,7 +13124,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>1370</v>
       </c>
@@ -13130,7 +13139,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>1372</v>
       </c>
@@ -13145,7 +13154,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>1374</v>
       </c>
@@ -13160,7 +13169,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>1376</v>
       </c>
@@ -13175,7 +13184,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>1378</v>
       </c>
@@ -13190,7 +13199,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>1380</v>
       </c>
@@ -13205,7 +13214,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>1382</v>
       </c>
@@ -13217,7 +13226,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>1437</v>
       </c>
@@ -13226,7 +13235,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>1438</v>
       </c>
@@ -13235,7 +13244,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>1439</v>
       </c>
@@ -13244,7 +13253,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>1384</v>
       </c>
@@ -13256,7 +13265,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>1386</v>
       </c>
@@ -13268,7 +13277,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>1388</v>
       </c>
@@ -13280,7 +13289,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>1390</v>
       </c>
@@ -13292,7 +13301,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>1392</v>
       </c>
@@ -13304,7 +13313,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>1394</v>
       </c>
@@ -13316,7 +13325,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>1396</v>
       </c>
@@ -13328,7 +13337,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>1398</v>
       </c>
@@ -13340,7 +13349,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>1400</v>
       </c>
@@ -13352,7 +13361,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>1402</v>
       </c>
@@ -13364,7 +13373,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>1404</v>
       </c>
@@ -13376,7 +13385,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>1406</v>
       </c>
@@ -13388,7 +13397,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>1408</v>
       </c>
@@ -13400,7 +13409,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>1442</v>
       </c>
@@ -13408,7 +13417,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>1443</v>
       </c>
@@ -13416,7 +13425,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>1444</v>
       </c>
@@ -13424,7 +13433,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>1445</v>
       </c>
@@ -13432,7 +13441,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>1446</v>
       </c>
@@ -13440,7 +13449,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>1447</v>
       </c>
@@ -13448,7 +13457,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>1448</v>
       </c>
@@ -13456,7 +13465,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
         <v>1449</v>
       </c>
@@ -13464,7 +13473,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>1450</v>
       </c>
@@ -13472,7 +13481,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>1451</v>
       </c>
@@ -13480,7 +13489,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>1452</v>
       </c>
@@ -13488,7 +13497,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>1453</v>
       </c>
@@ -13496,7 +13505,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>1454</v>
       </c>
@@ -13504,7 +13513,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>1455</v>
       </c>
@@ -13512,7 +13521,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>1456</v>
       </c>
@@ -13520,7 +13529,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
         <v>1457</v>
       </c>
@@ -13528,7 +13537,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
         <v>1458</v>
       </c>
@@ -13536,7 +13545,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>1459</v>
       </c>
@@ -13544,7 +13553,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>1460</v>
       </c>
@@ -13552,7 +13561,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>1461</v>
       </c>
@@ -13560,7 +13569,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>1462</v>
       </c>
@@ -13568,7 +13577,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
         <v>1463</v>
       </c>
@@ -13576,7 +13585,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>1464</v>
       </c>
@@ -13584,7 +13593,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
         <v>1465</v>
       </c>
@@ -13592,7 +13601,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>1466</v>
       </c>
@@ -13600,7 +13609,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>1467</v>
       </c>
@@ -13608,7 +13617,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>1468</v>
       </c>
@@ -13616,7 +13625,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>1469</v>
       </c>
@@ -13624,7 +13633,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>1470</v>
       </c>
@@ -13632,7 +13641,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
         <v>1471</v>
       </c>
